--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -962,6 +962,416 @@
       </c>
       <c r="Z6" t="n">
         <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.236170193949947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.31948288341939</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.33782900383999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>199</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27.7684359011811</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56.34654960102821</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.27543110155131</v>
+      </c>
+      <c r="M7" t="n">
+        <v>74.88239695409804</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>14.50094055097026</v>
+      </c>
+      <c r="S7" t="n">
+        <v>33.19708866244761</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3405275550064873</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.850455113095167</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>52.44785908878892</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.910677802120451</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.37574072301307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.23449637313255</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.79419629487529</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82.0263372875138</v>
+      </c>
+      <c r="J8" t="n">
+        <v>91.47792125822717</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22.48362438273735</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28.0782402654964</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>442.87290831993</v>
+      </c>
+      <c r="P8" t="n">
+        <v>781.8007350658695</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>14.97051587534993</v>
+      </c>
+      <c r="S8" t="n">
+        <v>56.66655450314345</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.4916294096633961</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6289496152647366</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>29.50840906235267</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>59.83441633827903</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.913469024152721</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.245001556861974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.83638795692781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>123.5145276201419</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39.9016640580615</v>
+      </c>
+      <c r="J9" t="n">
+        <v>106.8699623981976</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32.40140608925849</v>
+      </c>
+      <c r="M9" t="n">
+        <v>47.60901549885153</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18.30142931619094</v>
+      </c>
+      <c r="P9" t="n">
+        <v>103.3264704564923</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.635556251101543</v>
+      </c>
+      <c r="S9" t="n">
+        <v>22.9785583733684</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.57104081059447</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.403204275130719</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25.98585491964835</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.209713240038663</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.64433207891871</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.71264145942928</v>
+      </c>
+      <c r="G10" t="n">
+        <v>94.16025886849447</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.29029189692394</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50.99177950700429</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.640782184240663</v>
+      </c>
+      <c r="M10" t="n">
+        <v>85.9241979045362</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>268.3284187991649</v>
+      </c>
+      <c r="P10" t="n">
+        <v>474.1012519287149</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>49.81577016479474</v>
+      </c>
+      <c r="S10" t="n">
+        <v>63.04826030489536</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.671464497846721</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.41701325450114</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>29.34330037065569</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>79.47048373184393</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.52179672177661</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>68.3498934109695</v>
+      </c>
+      <c r="G11" t="n">
+        <v>177.1425018493683</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.49848370099059</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27.80614359467662</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>61.38049185458281</v>
+      </c>
+      <c r="M11" t="n">
+        <v>62.03375723580692</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>635.7600249526089</v>
+      </c>
+      <c r="P11" t="n">
+        <v>747.2718729382423</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>28.5931224985664</v>
+      </c>
+      <c r="S11" t="n">
+        <v>57.53305293263407</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5710005334614557</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9090036777474517</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>57.59175885709261</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>76.49530218418695</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -1372,6 +1372,1236 @@
       </c>
       <c r="Z11" t="n">
         <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:37</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.300077666864683</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39.15760259580059</v>
+      </c>
+      <c r="G12" t="n">
+        <v>118.6522294366521</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93.2043734557335</v>
+      </c>
+      <c r="J12" t="n">
+        <v>98.05184539046311</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.461144932718963</v>
+      </c>
+      <c r="M12" t="n">
+        <v>78.10714269396104</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>531.3036863171083</v>
+      </c>
+      <c r="P12" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>39.54808179876859</v>
+      </c>
+      <c r="S12" t="n">
+        <v>65.88743269510144</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6531028285773083</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.761582140495866</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34.95745273457339</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:37</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.294627557201709</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.26427064844588</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>59.24049227483034</v>
+      </c>
+      <c r="G13" t="n">
+        <v>184.7209621884567</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70.77966026791424</v>
+      </c>
+      <c r="J13" t="n">
+        <v>73.6685440976299</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.34688986014843</v>
+      </c>
+      <c r="M13" t="n">
+        <v>90.25292757888126</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>190.2706694467488</v>
+      </c>
+      <c r="P13" t="n">
+        <v>744.3852951357326</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>38.10644523875288</v>
+      </c>
+      <c r="S13" t="n">
+        <v>54.18212867222329</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.443217935014442</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.211779287349275</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22.84784660456691</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:37</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.33290444178566</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>51.97905052241999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>117.9828971433636</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80.17895338698528</v>
+      </c>
+      <c r="J14" t="n">
+        <v>122</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.068338134272121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>99</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>118.1332179782366</v>
+      </c>
+      <c r="P14" t="n">
+        <v>291.333886131104</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>31.99563109335807</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.99092604669048</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.628288084193112</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34.88286607720294</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>53.53538123736768</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.742509681524973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.14902224364135</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>111.2273420422608</v>
+      </c>
+      <c r="G15" t="n">
+        <v>131.6434345616529</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.85034187723428</v>
+      </c>
+      <c r="J15" t="n">
+        <v>85.66914841779538</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5224268181590396</v>
+      </c>
+      <c r="M15" t="n">
+        <v>25.37027996017252</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>313.9397429608834</v>
+      </c>
+      <c r="P15" t="n">
+        <v>504.1295350350793</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15.411110376952</v>
+      </c>
+      <c r="S15" t="n">
+        <v>60.2063335924699</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5825602369699718</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.004827429981508</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>31.8115186940589</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>73.95481994516111</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.681017576169305</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.16188720705449</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.86580706161898</v>
+      </c>
+      <c r="G16" t="n">
+        <v>190.9552305534262</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.23393816583776</v>
+      </c>
+      <c r="J16" t="n">
+        <v>73.53108014600419</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22.94888785348796</v>
+      </c>
+      <c r="M16" t="n">
+        <v>67.99407966996975</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>334.1531456047116</v>
+      </c>
+      <c r="P16" t="n">
+        <v>642.4647703957804</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18.94862881377271</v>
+      </c>
+      <c r="S16" t="n">
+        <v>43.94767447392195</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8145083868061394</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.970958446223249</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>28.78947191832976</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:56</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.92678739336101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.63213977304903</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>111.2907149674051</v>
+      </c>
+      <c r="G17" t="n">
+        <v>168.0577502743334</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19.04247528535028</v>
+      </c>
+      <c r="J17" t="n">
+        <v>29.03653074268617</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>31.15790000989464</v>
+      </c>
+      <c r="M17" t="n">
+        <v>58.67323432672531</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>211.8276552457678</v>
+      </c>
+      <c r="P17" t="n">
+        <v>604.3555879831434</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>58.12161930515595</v>
+      </c>
+      <c r="S17" t="n">
+        <v>59.56721282943991</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.7105718841784978</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.174567391092846</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21.93764434761614</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>45.16810724997883</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:56</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.540984681237198</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.05582211659764</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>79.72842809691329</v>
+      </c>
+      <c r="G18" t="n">
+        <v>178.2993455469657</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>73.8723483971191</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105.407771582813</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>37.85576801225122</v>
+      </c>
+      <c r="M18" t="n">
+        <v>84.30947814759355</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>299.0722264257608</v>
+      </c>
+      <c r="P18" t="n">
+        <v>663.9805497265878</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10.1596622216753</v>
+      </c>
+      <c r="S18" t="n">
+        <v>56.52561886915348</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.7122388528258476</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.733349263092105</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>28.56472900890304</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>75.25913712316697</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.36060202927622</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50.55571361517322</v>
+      </c>
+      <c r="G19" t="n">
+        <v>169.0176342482553</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2380422832855906</v>
+      </c>
+      <c r="J19" t="n">
+        <v>81.68380398620383</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70.84964465253138</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>501.2864041254094</v>
+      </c>
+      <c r="P19" t="n">
+        <v>808.2853715991849</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>21.19817349440853</v>
+      </c>
+      <c r="S19" t="n">
+        <v>40.51040324195151</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9343578517564591</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.771224508568376</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>39.36034170843531</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>61.06153744882951</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.053374174528172</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.845610336675447</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>102.6888846668603</v>
+      </c>
+      <c r="G20" t="n">
+        <v>199</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>44.05390075501912</v>
+      </c>
+      <c r="J20" t="n">
+        <v>49.49111809940235</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22.15079718534779</v>
+      </c>
+      <c r="M20" t="n">
+        <v>92.25626604988821</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>268.6910059259021</v>
+      </c>
+      <c r="P20" t="n">
+        <v>410.1073580737913</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>25.67564449979587</v>
+      </c>
+      <c r="S20" t="n">
+        <v>28.68694904709848</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.9069500271634345</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.40663202611703</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24.34893133517783</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>61.94072754910079</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.125112581021046</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.53439548572102</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64.46962039832781</v>
+      </c>
+      <c r="G21" t="n">
+        <v>195.9943160281469</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>65.03804359981555</v>
+      </c>
+      <c r="J21" t="n">
+        <v>107.7945856514337</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14.33192320827538</v>
+      </c>
+      <c r="M21" t="n">
+        <v>14.78674681436008</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>251.7791909731951</v>
+      </c>
+      <c r="P21" t="n">
+        <v>646.7894426161192</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>20.14493661134775</v>
+      </c>
+      <c r="S21" t="n">
+        <v>63.28540517383509</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8231849976207869</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.785947915783804</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>68.43365275418931</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.219073737800752</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.43530425673415</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.60139056339086</v>
+      </c>
+      <c r="G22" t="n">
+        <v>94.93244541733674</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.50223450906021</v>
+      </c>
+      <c r="J22" t="n">
+        <v>81.25381737595616</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.624570586613341</v>
+      </c>
+      <c r="M22" t="n">
+        <v>99</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>222.3511552025873</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10.26472995586513</v>
+      </c>
+      <c r="S22" t="n">
+        <v>41.64750424651857</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.9652179000165629</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>27.44181975527848</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>58.34253544592752</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.939725873936374</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.42778375999141</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.59970485773644</v>
+      </c>
+      <c r="G23" t="n">
+        <v>71.15885638026937</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33.52051394271384</v>
+      </c>
+      <c r="J23" t="n">
+        <v>110.8306676432011</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>69.64962885165853</v>
+      </c>
+      <c r="M23" t="n">
+        <v>69.82709568014867</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>412.874758776179</v>
+      </c>
+      <c r="P23" t="n">
+        <v>458.0192921842699</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>18.71379706464582</v>
+      </c>
+      <c r="S23" t="n">
+        <v>27.69144665692091</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.09451834548343752</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.3191260619433077</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>22.25052806765181</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>25.70197820330112</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.386635311149113</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>43.63205436512484</v>
+      </c>
+      <c r="G24" t="n">
+        <v>49.66726200739349</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28.64574942742922</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39.08324247563432</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15.53912638956331</v>
+      </c>
+      <c r="M24" t="n">
+        <v>99</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>494.9407482726326</v>
+      </c>
+      <c r="P24" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15.80203110656121</v>
+      </c>
+      <c r="S24" t="n">
+        <v>28.29716422535113</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.563507847272593</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>30.19291592943154</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>60.07478351301928</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.170695317836651</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.13194662236697</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>109.3784397407249</v>
+      </c>
+      <c r="G25" t="n">
+        <v>123.8946562420417</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.273084839026758</v>
+      </c>
+      <c r="J25" t="n">
+        <v>108.1693251290166</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35.24359295688583</v>
+      </c>
+      <c r="M25" t="n">
+        <v>54.41598576601191</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>77.59706904121941</v>
+      </c>
+      <c r="P25" t="n">
+        <v>492.3894264807132</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>24.80859946413261</v>
+      </c>
+      <c r="S25" t="n">
+        <v>60.76828848204223</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1685024608802961</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.275343422602732</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>52.79525919224453</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>57.1626927224297</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.812928109010258</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13.15077213078053</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33.1511095525963</v>
+      </c>
+      <c r="G26" t="n">
+        <v>198.0522842589787</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>116.458019966882</v>
+      </c>
+      <c r="J26" t="n">
+        <v>121.0349962060343</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>88.76726848194242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>94.17502382881617</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>51.58002817383018</v>
+      </c>
+      <c r="P26" t="n">
+        <v>362.6196468586556</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.362296277338463</v>
+      </c>
+      <c r="S26" t="n">
+        <v>49.5907569347938</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1107405085599366</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.37830335327617</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>30.53892468779969</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>35.83866190400924</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.6851851851851852</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -2602,6 +2602,826 @@
       </c>
       <c r="Z26" t="n">
         <v>0.6851851851851852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.2514750469971</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.51014296473799</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.859172634101208</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.4503483793476</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>42.81885696354757</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20.98965980985996</v>
+      </c>
+      <c r="M27" t="n">
+        <v>34.78983313871584</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>171.8800223954878</v>
+      </c>
+      <c r="P27" t="n">
+        <v>301.0416982569073</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9562345197587145</v>
+      </c>
+      <c r="S27" t="n">
+        <v>34.15019126279584</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.6697881511640474</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.856662498420101</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>27.09585957466716</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>77.14003218252162</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.182592079497156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.85513733193494</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.8018096030708</v>
+      </c>
+      <c r="G28" t="n">
+        <v>170.5191619970049</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25.18661906048693</v>
+      </c>
+      <c r="J28" t="n">
+        <v>94.54061335146062</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>58.27177764497904</v>
+      </c>
+      <c r="M28" t="n">
+        <v>66.75890704320155</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>146.6779310036698</v>
+      </c>
+      <c r="P28" t="n">
+        <v>474.6679638661048</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>20.93610910511698</v>
+      </c>
+      <c r="S28" t="n">
+        <v>33.93680583298166</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.9394004788889191</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>27.27875401445449</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>73.01694893736425</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.19490569077177</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.271278292544</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.427650156691616</v>
+      </c>
+      <c r="G29" t="n">
+        <v>151.8896786353946</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.982283298283753</v>
+      </c>
+      <c r="J29" t="n">
+        <v>41.89494126342381</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>78.01405689670493</v>
+      </c>
+      <c r="M29" t="n">
+        <v>82.23907500689593</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>47.69501803957818</v>
+      </c>
+      <c r="P29" t="n">
+        <v>811.6048806662515</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>23.26158679626947</v>
+      </c>
+      <c r="S29" t="n">
+        <v>37.1463469579993</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2901037145129263</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.185145688726091</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>27.25190730772675</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>63.69189608248048</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.934617100710646</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15.34688437679819</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>138.1113528158706</v>
+      </c>
+      <c r="G30" t="n">
+        <v>147.1368404563695</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25.65682124936928</v>
+      </c>
+      <c r="J30" t="n">
+        <v>62.9136185823083</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>39.35007911342565</v>
+      </c>
+      <c r="M30" t="n">
+        <v>60.84555137228796</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>314.5905487676667</v>
+      </c>
+      <c r="P30" t="n">
+        <v>812.5745119197675</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.324756092672611</v>
+      </c>
+      <c r="S30" t="n">
+        <v>41.63607377256228</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.607890765197906</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.187471502392548</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>42.51621952310173</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>43.97388016681664</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.832332678846488</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.10274080457856</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85.79110600172332</v>
+      </c>
+      <c r="G31" t="n">
+        <v>113.8578157669373</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27.75456234743493</v>
+      </c>
+      <c r="J31" t="n">
+        <v>67.9522447510106</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20.44838603123204</v>
+      </c>
+      <c r="M31" t="n">
+        <v>55.22182960423127</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>102.5995719937</v>
+      </c>
+      <c r="P31" t="n">
+        <v>783.7612511897072</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>22.95567746236146</v>
+      </c>
+      <c r="S31" t="n">
+        <v>41.82277384123252</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.583309442126913</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>24.73992616035325</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>69.77375403952296</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.8703703703703703</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:38</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.441297719604731</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.872245599183564</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>167.1752109435818</v>
+      </c>
+      <c r="G32" t="n">
+        <v>176.8796856576857</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>46.36658728664653</v>
+      </c>
+      <c r="J32" t="n">
+        <v>76.21821565714133</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.445617835411127</v>
+      </c>
+      <c r="M32" t="n">
+        <v>99</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>114.3346608643482</v>
+      </c>
+      <c r="P32" t="n">
+        <v>648.5795827968736</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>23.54890761920873</v>
+      </c>
+      <c r="S32" t="n">
+        <v>33.10673275168955</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.33660666021801</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>53.65461574203702</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>57.02288238699512</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:38</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.208890072617258</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>87.79757992531236</v>
+      </c>
+      <c r="G33" t="n">
+        <v>119.4707025016874</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>52.10903273161176</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>11.22038862927667</v>
+      </c>
+      <c r="M33" t="n">
+        <v>56.13950016452279</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>85.49007832401276</v>
+      </c>
+      <c r="P33" t="n">
+        <v>833.8147501317205</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>44.46482113774811</v>
+      </c>
+      <c r="S33" t="n">
+        <v>46.96798390882603</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.66420488254529</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.640716394429128</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>54.99387030641981</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>70.54383191206415</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15.53189381413118</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15.71630647648174</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>127.2016899930407</v>
+      </c>
+      <c r="G34" t="n">
+        <v>130.7231739762171</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.679046298375785</v>
+      </c>
+      <c r="J34" t="n">
+        <v>117.6358394672061</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>43.86307915823495</v>
+      </c>
+      <c r="M34" t="n">
+        <v>57.94975855359519</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>328.9701090378826</v>
+      </c>
+      <c r="P34" t="n">
+        <v>457.8978041370312</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.655110936573017</v>
+      </c>
+      <c r="S34" t="n">
+        <v>52.85138022139279</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.2410186795793938</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21.44304376329622</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>56.64452743732097</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.062770627961187</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.202025574439187</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.88864558034272</v>
+      </c>
+      <c r="G35" t="n">
+        <v>110.0198940421558</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41.09219012789776</v>
+      </c>
+      <c r="J35" t="n">
+        <v>88.19924141387843</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.84049803626897</v>
+      </c>
+      <c r="M35" t="n">
+        <v>86.48342926846964</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>120.2991100904764</v>
+      </c>
+      <c r="P35" t="n">
+        <v>348.6278294906264</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>30.71516387776541</v>
+      </c>
+      <c r="S35" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7675835037328229</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.113808170393303</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>52.43025935495999</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>61.93780284330199</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11.332365393015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.32804941448859</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.59544840943463</v>
+      </c>
+      <c r="G36" t="n">
+        <v>74.84307528854208</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>117.1922566894128</v>
+      </c>
+      <c r="J36" t="n">
+        <v>121.2104911017738</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>11.49621957428732</v>
+      </c>
+      <c r="M36" t="n">
+        <v>99</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>551.1992540392927</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37.68572219909689</v>
+      </c>
+      <c r="S36" t="n">
+        <v>41.50254684403539</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.043114642969443</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.326501742625524</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>36.05112093071352</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>53.61250434949689</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.5740740740740741</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -3422,6 +3422,1236 @@
       </c>
       <c r="Z36" t="n">
         <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.671320945735538</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.75815816014019</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>38.85764751658272</v>
+      </c>
+      <c r="G37" t="n">
+        <v>115.3142403067044</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33.7227387323478</v>
+      </c>
+      <c r="J37" t="n">
+        <v>53.78374830293269</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.481623649289919</v>
+      </c>
+      <c r="M37" t="n">
+        <v>23.5278098481296</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>38.71390880494942</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>17.42780371866969</v>
+      </c>
+      <c r="S37" t="n">
+        <v>20.26430364505688</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.232711039165371</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2718540735480773</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26.20138366539998</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>78.69894117518467</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.057020150201389</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.97454648470131</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76.23135971961253</v>
+      </c>
+      <c r="G38" t="n">
+        <v>185.4844633797294</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>77.37297046979528</v>
+      </c>
+      <c r="J38" t="n">
+        <v>110.7344873931788</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>55.42123635541501</v>
+      </c>
+      <c r="M38" t="n">
+        <v>97.73703233189505</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>152.1161901501044</v>
+      </c>
+      <c r="P38" t="n">
+        <v>841.8260463704463</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>25.5912200963079</v>
+      </c>
+      <c r="S38" t="n">
+        <v>26.30775231301678</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.2683044849600523</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.054104811953341</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>30.20565105960972</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>65.99498284811176</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.86556710991996</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>85.2834026302738</v>
+      </c>
+      <c r="G39" t="n">
+        <v>164.6693278829574</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>92.67979822795627</v>
+      </c>
+      <c r="J39" t="n">
+        <v>120.1057762774313</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.009641030710721</v>
+      </c>
+      <c r="M39" t="n">
+        <v>96.00681713567759</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>60.45745802379151</v>
+      </c>
+      <c r="P39" t="n">
+        <v>691.3332534143422</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>34.90147824920221</v>
+      </c>
+      <c r="S39" t="n">
+        <v>61.52590760195858</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.31861917646021</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.319495578772305</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>50.53896113669792</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>80.67496234167109</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.462962962962963</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.424162986023346</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.71829014452635</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>129.0997022520891</v>
+      </c>
+      <c r="G40" t="n">
+        <v>186.9313415737632</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>97.53324913016255</v>
+      </c>
+      <c r="J40" t="n">
+        <v>115.142462860215</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.026615181043006</v>
+      </c>
+      <c r="M40" t="n">
+        <v>54.85914484666689</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>714.1879106848644</v>
+      </c>
+      <c r="P40" t="n">
+        <v>756.6392639173213</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>17.9607006871676</v>
+      </c>
+      <c r="S40" t="n">
+        <v>51.95112307442012</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.453561821079129</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.234666016486006</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>31.99042890455006</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>64.93109722942353</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.912024430431558</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.529146936951959</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21.63361136536204</v>
+      </c>
+      <c r="G41" t="n">
+        <v>189.5416933426455</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12.31858170165189</v>
+      </c>
+      <c r="J41" t="n">
+        <v>115.4942437098021</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14.91963516669297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>51.29824371333774</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>131.6009594740699</v>
+      </c>
+      <c r="P41" t="n">
+        <v>554.8229499658751</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5.250912245837899</v>
+      </c>
+      <c r="S41" t="n">
+        <v>25.40164068651776</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.437137781380892</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.997874572626363</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>24.82984986270101</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.8703703703703703</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:52</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8311884950512285</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.678050662279133</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>23.28331724087583</v>
+      </c>
+      <c r="G42" t="n">
+        <v>48.60417708838304</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27.2694446358284</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.358702515669936</v>
+      </c>
+      <c r="M42" t="n">
+        <v>99</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>507.5941884308165</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>51.08573936700019</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.4107269085260775</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>31.43295700923313</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.34423207920841</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.99215733815312</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>78.15475270489878</v>
+      </c>
+      <c r="G43" t="n">
+        <v>105.9525272283707</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24.39725135619642</v>
+      </c>
+      <c r="J43" t="n">
+        <v>59.52733600829954</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12.24178231166663</v>
+      </c>
+      <c r="M43" t="n">
+        <v>99</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>291.9987305187956</v>
+      </c>
+      <c r="P43" t="n">
+        <v>650.4554979452034</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>38.83716122749812</v>
+      </c>
+      <c r="S43" t="n">
+        <v>42.52960119946334</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.486258443398221</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.320817244492299</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>29.83587531030314</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>63.57114586438379</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.002521784771931</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.27593835728639</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>85.91172090539486</v>
+      </c>
+      <c r="G44" t="n">
+        <v>91.23689278999663</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>49.85630668778136</v>
+      </c>
+      <c r="J44" t="n">
+        <v>49.88134230614116</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.791397339408063</v>
+      </c>
+      <c r="M44" t="n">
+        <v>88.79242335560271</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>637.9569703816841</v>
+      </c>
+      <c r="P44" t="n">
+        <v>704.3393331091785</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9.800185568287734</v>
+      </c>
+      <c r="S44" t="n">
+        <v>27.15406647808848</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.588822684993696</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.062465925345199</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>24.55148148822174</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>63.71171146941326</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.038940965193209</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.81143030571175</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.39133608782716</v>
+      </c>
+      <c r="G45" t="n">
+        <v>154.6153525719837</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>71.39614746049628</v>
+      </c>
+      <c r="J45" t="n">
+        <v>83.47196494477723</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>33.59895274808318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>56.9132144902679</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>62.41051517864233</v>
+      </c>
+      <c r="P45" t="n">
+        <v>384.0555543230587</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.023999936512992</v>
+      </c>
+      <c r="S45" t="n">
+        <v>12.45657055359431</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.410297975761166</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.416676262438012</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>35.41044310878306</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>42.34544857813659</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.864348458730991</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.29624703444684</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>95.72696960765023</v>
+      </c>
+      <c r="G46" t="n">
+        <v>166.8382680991095</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>58.03604874852805</v>
+      </c>
+      <c r="J46" t="n">
+        <v>122</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>30.26948587552586</v>
+      </c>
+      <c r="M46" t="n">
+        <v>58.34149103136417</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>347.694868892477</v>
+      </c>
+      <c r="P46" t="n">
+        <v>630.6343919744434</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>14.90431552275061</v>
+      </c>
+      <c r="S46" t="n">
+        <v>23.02126451863394</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.7152602168159677</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.9531749431828208</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>31.14320052404774</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>67.60580248209828</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:18</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.217793360264844</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.49184505804468</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17.8022194832619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>99.16239722166519</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>108.3069399202523</v>
+      </c>
+      <c r="J47" t="n">
+        <v>112.4933036851534</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>81.34595253459182</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>503.546952837648</v>
+      </c>
+      <c r="P47" t="n">
+        <v>765.4799527373175</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>24.44883134528989</v>
+      </c>
+      <c r="S47" t="n">
+        <v>63.91175217357701</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.185890669688372</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.301927781155374</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>31.40925843403732</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>57.43373152758607</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.608082059108487</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.77940341841913</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.61107222735543</v>
+      </c>
+      <c r="G48" t="n">
+        <v>154.0170513238421</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>68.00232442340332</v>
+      </c>
+      <c r="J48" t="n">
+        <v>74.7045757031261</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>48.13243478247374</v>
+      </c>
+      <c r="M48" t="n">
+        <v>60.81974517319188</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>470.8742363834595</v>
+      </c>
+      <c r="P48" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>46.74492763480644</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.3278870334675226</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>29.62238888607761</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.929141701167061</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8.652177694316178</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14.16963307470117</v>
+      </c>
+      <c r="G49" t="n">
+        <v>40.46411277913851</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>107.3087259612856</v>
+      </c>
+      <c r="J49" t="n">
+        <v>110.2132860903009</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>28.55997923054996</v>
+      </c>
+      <c r="M49" t="n">
+        <v>96.46722154005235</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>519.3494417113801</v>
+      </c>
+      <c r="P49" t="n">
+        <v>649.6671038865942</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>57.06548539174393</v>
+      </c>
+      <c r="S49" t="n">
+        <v>63.53145826668744</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.985711970347336</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.250526834344439</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>23.03630319797061</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>72.35818709544083</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.9259259259259259</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.389839917814807</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14.57818127321498</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>155.9229972170831</v>
+      </c>
+      <c r="G50" t="n">
+        <v>186.5365134914538</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>43.03277992290881</v>
+      </c>
+      <c r="J50" t="n">
+        <v>88.412135295911</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.156149581971291</v>
+      </c>
+      <c r="M50" t="n">
+        <v>68.05473462803724</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>407.8266601450813</v>
+      </c>
+      <c r="P50" t="n">
+        <v>815.0178169265649</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.25816321546501</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11.45061722554392</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.079788829911124</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.983263450355133</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>26.49849499579403</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>75.41435436088601</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6809517119859776</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16.53382237103138</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>36.17300068270691</v>
+      </c>
+      <c r="G51" t="n">
+        <v>137.7848487619521</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>78.97300773493053</v>
+      </c>
+      <c r="J51" t="n">
+        <v>122</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>92.13881246718911</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>275.7152641064409</v>
+      </c>
+      <c r="P51" t="n">
+        <v>346.9999208745253</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>39.73818424540484</v>
+      </c>
+      <c r="S51" t="n">
+        <v>46.74361362188019</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.5045635884870667</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.234463990640607</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>32.01081285162755</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.5925925925925926</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -4651,6 +4651,416 @@
         <v>81</v>
       </c>
       <c r="Z51" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.99144780956891</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>107.1796047865839</v>
+      </c>
+      <c r="G52" t="n">
+        <v>182.5599001564664</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.433796681816527</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17.33426883760191</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>78.71598549575489</v>
+      </c>
+      <c r="M52" t="n">
+        <v>94.7928818564519</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>36.81499223522242</v>
+      </c>
+      <c r="P52" t="n">
+        <v>190.5315853445162</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8.925707575631357</v>
+      </c>
+      <c r="S52" t="n">
+        <v>41.41604802079735</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.2255886842240853</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.289414389857433</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>73.06529886985771</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>80.04769412636006</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.007288037626449</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.40207673579446</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>63.04015971721989</v>
+      </c>
+      <c r="G53" t="n">
+        <v>187.6523714801381</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.56003956237986</v>
+      </c>
+      <c r="J53" t="n">
+        <v>91.77831862031546</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10.82796352616305</v>
+      </c>
+      <c r="M53" t="n">
+        <v>52.02716640875025</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>437.4759440270183</v>
+      </c>
+      <c r="P53" t="n">
+        <v>555.8633914101567</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>45.09423993373577</v>
+      </c>
+      <c r="S53" t="n">
+        <v>62.27688996776899</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.242262638559662</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.022312030467459</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>35.34502688212699</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.63876696887775</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.95530669629881</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>43.25706049719936</v>
+      </c>
+      <c r="G54" t="n">
+        <v>77.15096010394872</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27.92112004015322</v>
+      </c>
+      <c r="J54" t="n">
+        <v>118.1778317305343</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>29.62402312243989</v>
+      </c>
+      <c r="M54" t="n">
+        <v>42.53067814529093</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>548.3720767573424</v>
+      </c>
+      <c r="P54" t="n">
+        <v>731.5370271520876</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>60.83408536440199</v>
+      </c>
+      <c r="S54" t="n">
+        <v>61.64524806318227</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.3077834438825207</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>25.95510421314235</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>33.38183409858777</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.368497496651456</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.7385624200029</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>73.48291723388765</v>
+      </c>
+      <c r="G55" t="n">
+        <v>199</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>99.10203548335539</v>
+      </c>
+      <c r="J55" t="n">
+        <v>122</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.3509560265956</v>
+      </c>
+      <c r="M55" t="n">
+        <v>99</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>519.7898660939416</v>
+      </c>
+      <c r="P55" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>34.09742320345596</v>
+      </c>
+      <c r="S55" t="n">
+        <v>47.72387167183074</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.6255380376980738</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.626741726035087</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>28.11600187918554</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>46.22349211926267</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.383370061048452</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.51904154738473</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>179.6957222385831</v>
+      </c>
+      <c r="G56" t="n">
+        <v>182.8694695216588</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>94.72318976984974</v>
+      </c>
+      <c r="J56" t="n">
+        <v>115.2785465508336</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>26.40222272716024</v>
+      </c>
+      <c r="M56" t="n">
+        <v>51.97950075426791</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>439.6456035454518</v>
+      </c>
+      <c r="P56" t="n">
+        <v>816.3103332214738</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>12.56389445987654</v>
+      </c>
+      <c r="S56" t="n">
+        <v>55.19716672698463</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.3964708964272705</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.152058018082408</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>33.95106404126786</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>59.43222069507735</v>
+      </c>
+      <c r="Z56" t="n">
         <v>0.5925925925925926</v>
       </c>
     </row>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -5062,6 +5062,6976 @@
       </c>
       <c r="Z56" t="n">
         <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10.49020065220799</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.45504316179083</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>51.06387306405001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>106.2549624320367</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.9118419025984</v>
+      </c>
+      <c r="J57" t="n">
+        <v>72.20615039392112</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>15.92693167058025</v>
+      </c>
+      <c r="M57" t="n">
+        <v>98.58307208556066</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>314.0178154246044</v>
+      </c>
+      <c r="P57" t="n">
+        <v>427.8536827948165</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2451490586613587</v>
+      </c>
+      <c r="S57" t="n">
+        <v>41.10476878750377</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.3729810169883447</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.093001044869974</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>47.72860649116511</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>50.24160606095271</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.655333776579491</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13.95316937610467</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14.65068311805005</v>
+      </c>
+      <c r="G58" t="n">
+        <v>99.20069043081018</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.07353593228764</v>
+      </c>
+      <c r="J58" t="n">
+        <v>111.0872615556525</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.673800687752673</v>
+      </c>
+      <c r="M58" t="n">
+        <v>73.33998693884723</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>750.0952894228393</v>
+      </c>
+      <c r="P58" t="n">
+        <v>807.8269728887205</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.402471374152375</v>
+      </c>
+      <c r="S58" t="n">
+        <v>38.98378535572417</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.009678525484594</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.401456320013029</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>25.22233175694643</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.697198190721942</v>
+      </c>
+      <c r="D59" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>71.23563982507841</v>
+      </c>
+      <c r="G59" t="n">
+        <v>199</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44.4623929201702</v>
+      </c>
+      <c r="J59" t="n">
+        <v>56.1240222095876</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>8.762364149321735</v>
+      </c>
+      <c r="M59" t="n">
+        <v>99</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>49.23153014683041</v>
+      </c>
+      <c r="P59" t="n">
+        <v>721.1374159884946</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.385013243460502</v>
+      </c>
+      <c r="S59" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.32619431482711</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.36539150796063</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>29.08138928670415</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>58.34566748810899</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.666530115795165</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15.84330052596293</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>90.91226234530721</v>
+      </c>
+      <c r="G60" t="n">
+        <v>199</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>47.65421095293501</v>
+      </c>
+      <c r="J60" t="n">
+        <v>68.35968717322424</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>49.61181593087734</v>
+      </c>
+      <c r="M60" t="n">
+        <v>52.91224214408027</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>24.90473270067882</v>
+      </c>
+      <c r="P60" t="n">
+        <v>77.45611900034208</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7.559693754915763</v>
+      </c>
+      <c r="S60" t="n">
+        <v>42.4943414498907</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.6218407689076736</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.616847219120088</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>28.31617309192226</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.07031254328141</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.35044379886806</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>40.87685447113678</v>
+      </c>
+      <c r="G61" t="n">
+        <v>54.50564864310302</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.258175376622845</v>
+      </c>
+      <c r="J61" t="n">
+        <v>93.39956637669286</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>33.58815857909188</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>115.8810342459327</v>
+      </c>
+      <c r="P61" t="n">
+        <v>332.8157804942433</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>64.97122439556264</v>
+      </c>
+      <c r="S61" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.413243841988679</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>26.52195331969441</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>49.39040763639814</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:34</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.438084908146152</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.73707355686953</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1757320626377586</v>
+      </c>
+      <c r="G62" t="n">
+        <v>99.58021787088573</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28.32807458323303</v>
+      </c>
+      <c r="J62" t="n">
+        <v>93.67970221356698</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>12.55563437332611</v>
+      </c>
+      <c r="M62" t="n">
+        <v>73.13510632331698</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>109.2501975276169</v>
+      </c>
+      <c r="P62" t="n">
+        <v>128.4809263227726</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>31.45522335650878</v>
+      </c>
+      <c r="S62" t="n">
+        <v>62.22063279966667</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.9800455121227154</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.197872763987424</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>27.97179443491886</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>80.57919815216798</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:34</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.437808783046304</v>
+      </c>
+      <c r="D63" t="n">
+        <v>13.93351818878623</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>62.24251414571513</v>
+      </c>
+      <c r="G63" t="n">
+        <v>179.9380210415636</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>46.34092690246037</v>
+      </c>
+      <c r="J63" t="n">
+        <v>114.2328885162655</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>16.43631439168017</v>
+      </c>
+      <c r="M63" t="n">
+        <v>74.78768954830092</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>258.7455883149596</v>
+      </c>
+      <c r="P63" t="n">
+        <v>595.6937204453498</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.553373107611968</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.57785665041158</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.792323906905423</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.002988133893915</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>27.50637853728146</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>75.72537659670294</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:34</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.374283240570265</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15.00695108098988</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>50.43005931154026</v>
+      </c>
+      <c r="G64" t="n">
+        <v>143.4819338268015</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>67.27210149397645</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116.6235245946817</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3.411923527871721</v>
+      </c>
+      <c r="M64" t="n">
+        <v>72.15570716632847</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>164.8231353925219</v>
+      </c>
+      <c r="P64" t="n">
+        <v>390.4652566401016</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.413929330651377</v>
+      </c>
+      <c r="S64" t="n">
+        <v>48.78151032136851</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.707055210152804</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.135614637252407</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>68.27282117882791</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>72.99679301168713</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.58048863200668</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.484012823060329</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>51.90005489421817</v>
+      </c>
+      <c r="G65" t="n">
+        <v>58.0498077130166</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>40.14203629094399</v>
+      </c>
+      <c r="J65" t="n">
+        <v>83.59169997916058</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>15.039218029931</v>
+      </c>
+      <c r="M65" t="n">
+        <v>84.23960024182145</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>29.65327597289748</v>
+      </c>
+      <c r="P65" t="n">
+        <v>473.2358130609385</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>28.49135272516016</v>
+      </c>
+      <c r="S65" t="n">
+        <v>56.57847994256691</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.034517233486307</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.703613861088215</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>38.46055320625781</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>63.75879987866892</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.710303109849175</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>82.92216274661709</v>
+      </c>
+      <c r="G66" t="n">
+        <v>154.4478081178382</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19.41445541927391</v>
+      </c>
+      <c r="J66" t="n">
+        <v>102.5839456655831</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>91.09282072500159</v>
+      </c>
+      <c r="M66" t="n">
+        <v>99</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>378.5556197545804</v>
+      </c>
+      <c r="P66" t="n">
+        <v>406.8104462722403</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>24.13194644484105</v>
+      </c>
+      <c r="S66" t="n">
+        <v>66.25861587490601</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.3637994530785768</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.772937746586858</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>39.64748463926952</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>44.34355023103429</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:44</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.796699417967418</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.61412458502169</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>92.55332708767932</v>
+      </c>
+      <c r="G67" t="n">
+        <v>148.4137056657393</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>69.50573282803506</v>
+      </c>
+      <c r="J67" t="n">
+        <v>107.3738849787605</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>35.97089204713178</v>
+      </c>
+      <c r="M67" t="n">
+        <v>80.87178324497016</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>148.8409742570042</v>
+      </c>
+      <c r="P67" t="n">
+        <v>433.5422496518362</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>11.68665451552314</v>
+      </c>
+      <c r="S67" t="n">
+        <v>23.72817422736897</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.5694992345949242</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.129897252639785</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>23.244567317338</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>58.31801846045981</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.8842105263157894</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:44</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.132208562176804</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.03384144982409</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>61.24556428399548</v>
+      </c>
+      <c r="G68" t="n">
+        <v>168.5972680595287</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.855192984054754</v>
+      </c>
+      <c r="J68" t="n">
+        <v>32.70457668069891</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>47.65406047069983</v>
+      </c>
+      <c r="M68" t="n">
+        <v>86.1338310111004</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>392.6669421714998</v>
+      </c>
+      <c r="P68" t="n">
+        <v>782.5108260122447</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>24.63250426290105</v>
+      </c>
+      <c r="S68" t="n">
+        <v>66.91987936643764</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.1751396135209619</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.363369223296371</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>24.88184043303774</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>57.89695427004637</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.6947368421052632</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.214744025455632</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.92465938886503</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>46.68730153395867</v>
+      </c>
+      <c r="G69" t="n">
+        <v>155.0683402397229</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>64.27799960306409</v>
+      </c>
+      <c r="J69" t="n">
+        <v>69.3673278313609</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>98.7867104209195</v>
+      </c>
+      <c r="M69" t="n">
+        <v>99</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>127.0094201398618</v>
+      </c>
+      <c r="P69" t="n">
+        <v>152.397731386857</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>17.89941754345906</v>
+      </c>
+      <c r="S69" t="n">
+        <v>37.33140502395511</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.6575088813884542</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>27.03584162955911</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.8210526315789474</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.34990898078346</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.74739041638684</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>40.99288192651493</v>
+      </c>
+      <c r="G70" t="n">
+        <v>163.0773546665764</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>71.27708909260596</v>
+      </c>
+      <c r="J70" t="n">
+        <v>96.01964041976846</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2.825239411240262</v>
+      </c>
+      <c r="M70" t="n">
+        <v>89.72732759226896</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>50.0472191664299</v>
+      </c>
+      <c r="P70" t="n">
+        <v>777.9813231176108</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.697854779796646</v>
+      </c>
+      <c r="S70" t="n">
+        <v>14.99771400181498</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.801335206074908</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.31736834655092</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>66.40533393407421</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>76.26072706224568</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.210738083186957</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.62788527042509</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>92.84609782543619</v>
+      </c>
+      <c r="G71" t="n">
+        <v>118.4360570222659</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>48.63042188429699</v>
+      </c>
+      <c r="J71" t="n">
+        <v>116.7337838385823</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>19.89502852611728</v>
+      </c>
+      <c r="M71" t="n">
+        <v>49.94928459551379</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>116.4136436926407</v>
+      </c>
+      <c r="P71" t="n">
+        <v>566.441919505852</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5.843138619363307</v>
+      </c>
+      <c r="S71" t="n">
+        <v>63.68640122114785</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1088493632254946</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.104819581868664</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>23.17575448714752</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>73.88892678446632</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.7052631578947368</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.248754823374845</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16.32692029520375</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>36.46731382783199</v>
+      </c>
+      <c r="G72" t="n">
+        <v>169.7209193221827</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>16.34086316578919</v>
+      </c>
+      <c r="J72" t="n">
+        <v>109.5371573134411</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>23.05147001198653</v>
+      </c>
+      <c r="M72" t="n">
+        <v>41.80718421243128</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>613.6395215786695</v>
+      </c>
+      <c r="P72" t="n">
+        <v>738.9666581694092</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>25.93065237229183</v>
+      </c>
+      <c r="S72" t="n">
+        <v>51.83592846979973</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.778714891392517</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.213319005178687</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>61.25194251224352</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>63.08685964051342</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7869722886280204</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>120.5042285397636</v>
+      </c>
+      <c r="G73" t="n">
+        <v>171.6296084095262</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>40.17433417069705</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54.1569206660911</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>45.58242668584072</v>
+      </c>
+      <c r="M73" t="n">
+        <v>46.95361308292813</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>565.5052365017582</v>
+      </c>
+      <c r="P73" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>21.08885973989705</v>
+      </c>
+      <c r="S73" t="n">
+        <v>60.26050549541569</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.198339954796625</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>53.34443979779261</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>57.34825274237024</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.9368421052631579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.718471250768701</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.869460901371592</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>23.64078639363144</v>
+      </c>
+      <c r="G74" t="n">
+        <v>83.28759985521012</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26.15692507054101</v>
+      </c>
+      <c r="J74" t="n">
+        <v>64.91002707280481</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>14.33774395201343</v>
+      </c>
+      <c r="M74" t="n">
+        <v>15.56622504585367</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>518.5242408607365</v>
+      </c>
+      <c r="P74" t="n">
+        <v>815.7089043141871</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>16.68095617910987</v>
+      </c>
+      <c r="S74" t="n">
+        <v>46.34557419523468</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.4773372479365171</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.440397084077688</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>29.52562200837178</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>75.7701574208204</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.7263157894736842</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.381215681836252</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13.24312874946614</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>72.05664236786318</v>
+      </c>
+      <c r="G75" t="n">
+        <v>143.7599885127224</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.12774270330232</v>
+      </c>
+      <c r="J75" t="n">
+        <v>67.99442475157966</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>19.07629219826053</v>
+      </c>
+      <c r="M75" t="n">
+        <v>60.79911573369105</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>709.5858196034771</v>
+      </c>
+      <c r="P75" t="n">
+        <v>720.232286600223</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>29.38754337751017</v>
+      </c>
+      <c r="S75" t="n">
+        <v>65.29581008689007</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.724783470262184</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.058641679834343</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>29.71237526450529</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>74.99927002434001</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9.258890413085284</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14.88944535784642</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>76.73893757867415</v>
+      </c>
+      <c r="G76" t="n">
+        <v>197.4802799736743</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>27.56179384700486</v>
+      </c>
+      <c r="J76" t="n">
+        <v>56.16937715983221</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>68.99206716939621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>78.19772188465527</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>58.39106868103246</v>
+      </c>
+      <c r="P76" t="n">
+        <v>91.70707261029611</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4.783579511509773</v>
+      </c>
+      <c r="S76" t="n">
+        <v>23.35143103665925</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.4984108339388107</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.244528162530476</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>28.96399428393566</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>80.27562678675612</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.7473684210526316</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:20</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.162795316256757</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17.5947294359196</v>
+      </c>
+      <c r="G77" t="n">
+        <v>110.1326627339098</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>90.46091549807045</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>27.42852264611462</v>
+      </c>
+      <c r="M77" t="n">
+        <v>48.66486123719116</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>132.668725297926</v>
+      </c>
+      <c r="P77" t="n">
+        <v>781.9167879565756</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>38.07849143980828</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.577378308492576</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.790500736382624</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
+        <v>24.37417647003575</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>75.5717161101127</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:20</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.378239513895602</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.82795987128777</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>116.6249247416259</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.650452322316321</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7.052297677406125</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>92.5006466854955</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>170.7477000190734</v>
+      </c>
+      <c r="P78" t="n">
+        <v>843.7926804988566</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>33.59922569038034</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.5185748116701481</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.510866335896849</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>53.80387541316478</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>79.18866979341753</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.933513855699175</v>
+      </c>
+      <c r="D79" t="n">
+        <v>14.2490109485399</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>7.111721599292399</v>
+      </c>
+      <c r="G79" t="n">
+        <v>195.4900237634185</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15.02801368466015</v>
+      </c>
+      <c r="J79" t="n">
+        <v>24.84570475187881</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>48.99218686127851</v>
+      </c>
+      <c r="M79" t="n">
+        <v>79.32684323469329</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>149.1470259520158</v>
+      </c>
+      <c r="P79" t="n">
+        <v>495.0587171750995</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>15.61981004093973</v>
+      </c>
+      <c r="S79" t="n">
+        <v>60.42100133460461</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.1875453893548833</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.475212788380489</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
+        <v>24.99301928067121</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>76.75004939889055</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.8631578947368421</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.748694226947912</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12.68339542145467</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>87.76661358078005</v>
+      </c>
+      <c r="G80" t="n">
+        <v>199</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>61.09285983014711</v>
+      </c>
+      <c r="J80" t="n">
+        <v>84.51394703611166</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>55.67121195433589</v>
+      </c>
+      <c r="M80" t="n">
+        <v>96.45819887243488</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>516.5975140513378</v>
+      </c>
+      <c r="P80" t="n">
+        <v>803.4365000952888</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>39.82157884250377</v>
+      </c>
+      <c r="S80" t="n">
+        <v>55.10490647449635</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.69637536505184</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.027163649148174</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1</v>
+      </c>
+      <c r="X80" t="n">
+        <v>26.82036778078481</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>74.98637973408005</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.714763128261307</v>
+      </c>
+      <c r="D81" t="n">
+        <v>14.18555798138623</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>52.22796929143171</v>
+      </c>
+      <c r="G81" t="n">
+        <v>80.31353451523144</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>58.43482221618852</v>
+      </c>
+      <c r="J81" t="n">
+        <v>60.77274514422118</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>52.96722728473743</v>
+      </c>
+      <c r="M81" t="n">
+        <v>66.81924697664098</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>19.2974826297044</v>
+      </c>
+      <c r="P81" t="n">
+        <v>483.8455347626298</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>21.37653758915176</v>
+      </c>
+      <c r="S81" t="n">
+        <v>44.05687002851497</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.8114626301453792</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>28.92534986277726</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.7157894736842105</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:31</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.671025056981163</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9.16254324649627</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>70.71684198625628</v>
+      </c>
+      <c r="G82" t="n">
+        <v>80.28378461510441</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3754368005212925</v>
+      </c>
+      <c r="J82" t="n">
+        <v>95.40799223539669</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8.685115152457197</v>
+      </c>
+      <c r="M82" t="n">
+        <v>54.68088247573014</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>83.19391521282127</v>
+      </c>
+      <c r="P82" t="n">
+        <v>407.923605155682</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4.813336404171941</v>
+      </c>
+      <c r="S82" t="n">
+        <v>37.97116891025934</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>29.75798707878173</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.7263157894736842</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:31</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.06682019726687</v>
+      </c>
+      <c r="D83" t="n">
+        <v>16.06131504802244</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>102.075031504649</v>
+      </c>
+      <c r="G83" t="n">
+        <v>165.2425669504755</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.62544528102571</v>
+      </c>
+      <c r="J83" t="n">
+        <v>89.17581745359274</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.3597166548534977</v>
+      </c>
+      <c r="M83" t="n">
+        <v>88.89596570324304</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>59.69146055478546</v>
+      </c>
+      <c r="P83" t="n">
+        <v>550.2133629207516</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5.370068036662463</v>
+      </c>
+      <c r="S83" t="n">
+        <v>62.68562200264144</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.009932314468013</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.131851769826674</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>37.84102144516911</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>54.29695063771575</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.6736842105263158</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:31</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.993982725563215</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16.37011970910496</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12.32115639881967</v>
+      </c>
+      <c r="G84" t="n">
+        <v>21.09235076842626</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>35.80928812661729</v>
+      </c>
+      <c r="J84" t="n">
+        <v>50.50595310410704</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>48.42791279062578</v>
+      </c>
+      <c r="M84" t="n">
+        <v>57.31346391358407</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>349.2688361000826</v>
+      </c>
+      <c r="P84" t="n">
+        <v>500.8500574585663</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>28.67083485328055</v>
+      </c>
+      <c r="S84" t="n">
+        <v>33.17190807975538</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.3422817089895153</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.108936974842363</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>31.59273592519954</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>72.89310139835888</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.6736842105263158</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:31</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.296817946321597</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.0342238247099</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100.1385645166927</v>
+      </c>
+      <c r="G85" t="n">
+        <v>166.5394055194365</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20.14951725700647</v>
+      </c>
+      <c r="J85" t="n">
+        <v>33.6582104697248</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>24.34015548409211</v>
+      </c>
+      <c r="M85" t="n">
+        <v>59.11602624543366</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>79.60426686009386</v>
+      </c>
+      <c r="P85" t="n">
+        <v>333.5431635977992</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>43.67216534673108</v>
+      </c>
+      <c r="S85" t="n">
+        <v>61.40583951815133</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1510959851004709</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.303049544058665</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>43.39995189481042</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>79.31301737538006</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:32</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7.607821393493471</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.42513213221008</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>67.21485650471023</v>
+      </c>
+      <c r="G86" t="n">
+        <v>73.10026198108957</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50.86789598002343</v>
+      </c>
+      <c r="J86" t="n">
+        <v>111.0574386473504</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>27.58610037922565</v>
+      </c>
+      <c r="M86" t="n">
+        <v>82.62934911108914</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>279.6525614720852</v>
+      </c>
+      <c r="P86" t="n">
+        <v>694.8505110844867</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0778149317207727</v>
+      </c>
+      <c r="S86" t="n">
+        <v>60.86199730472327</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.6545417640099515</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.244143966530308</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>28.54299954541742</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>65.92901774576609</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:13</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.011691890082918</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>34.0361087496227</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>40.35217913630684</v>
+      </c>
+      <c r="J87" t="n">
+        <v>122</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>22.11380398066304</v>
+      </c>
+      <c r="M87" t="n">
+        <v>61.91801956672829</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>53.94169644820067</v>
+      </c>
+      <c r="P87" t="n">
+        <v>164.7060912817021</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>26.96127189193377</v>
+      </c>
+      <c r="S87" t="n">
+        <v>53.83262507585756</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.7116278181033934</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.089313425278529</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>38.88062753963338</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.6736842105263158</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:13</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9.971390804976673</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13.53920987862615</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>96.65496248945496</v>
+      </c>
+      <c r="G88" t="n">
+        <v>172.8266069185202</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>59.29649848724983</v>
+      </c>
+      <c r="J88" t="n">
+        <v>95.17591128329717</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>60.23254672055069</v>
+      </c>
+      <c r="M88" t="n">
+        <v>74.05834940396579</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>42.44747794983218</v>
+      </c>
+      <c r="P88" t="n">
+        <v>609.5599888637513</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>32.10069129375255</v>
+      </c>
+      <c r="S88" t="n">
+        <v>57.96591055021378</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.13361412249715</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.15790479325132</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>63.53425999701682</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>66.9034109844481</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.6631578947368421</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:13</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.430000372523827</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9.757350320631568</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>44.50042998380389</v>
+      </c>
+      <c r="G89" t="n">
+        <v>186.0512466572814</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>95.86387771718304</v>
+      </c>
+      <c r="J89" t="n">
+        <v>113.9984338747244</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>69.18007028176625</v>
+      </c>
+      <c r="M89" t="n">
+        <v>99</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>284.4942067151146</v>
+      </c>
+      <c r="P89" t="n">
+        <v>434.2472779154397</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>18.56321808640178</v>
+      </c>
+      <c r="S89" t="n">
+        <v>59.92996211521881</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.321342748863621</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.032780855353904</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1</v>
+      </c>
+      <c r="X89" t="n">
+        <v>26.4065376019065</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>58.47872309663526</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:13</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.732231708078494</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.48369180981306</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>48.51954389577195</v>
+      </c>
+      <c r="G90" t="n">
+        <v>92.95259512326821</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7.608425947156405</v>
+      </c>
+      <c r="J90" t="n">
+        <v>82.88384174136212</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>37.49273947366478</v>
+      </c>
+      <c r="M90" t="n">
+        <v>98.4490038658562</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>220.3465716959742</v>
+      </c>
+      <c r="P90" t="n">
+        <v>568.8495481337255</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>22.46134332486682</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.128895146819295</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.386727123613232</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>23.22483182616789</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.9368421052631579</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:14</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.137729175449105</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.11536127056628</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>56.45841049931682</v>
+      </c>
+      <c r="G91" t="n">
+        <v>98.46899938993985</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>18.22033483205349</v>
+      </c>
+      <c r="J91" t="n">
+        <v>65.67196985451724</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>25.11506529432953</v>
+      </c>
+      <c r="M91" t="n">
+        <v>30.87665066170803</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>362.2928661142124</v>
+      </c>
+      <c r="P91" t="n">
+        <v>467.6216031218225</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>49.89097520831223</v>
+      </c>
+      <c r="S91" t="n">
+        <v>62.84335246370217</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.125727930978508</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.06068920467569</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>24.68881592420644</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>79.74625658841123</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.9157894736842105</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:36</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.467570377370919</v>
+      </c>
+      <c r="D92" t="n">
+        <v>17</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>104.8197024053651</v>
+      </c>
+      <c r="G92" t="n">
+        <v>119.758629272018</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27.06931597278833</v>
+      </c>
+      <c r="J92" t="n">
+        <v>27.54653100097506</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>20.39026724103707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>32.30537245630212</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>164.2859630701512</v>
+      </c>
+      <c r="P92" t="n">
+        <v>528.7288389563158</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>22.39590533076495</v>
+      </c>
+      <c r="S92" t="n">
+        <v>32.15065192602943</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.8733430976817596</v>
+      </c>
+      <c r="V92" t="n">
+        <v>1.810843583589823</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>32.74965954706618</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>39.93634066083153</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:36</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.663031069347791</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15.46549428879374</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>112.5719246527256</v>
+      </c>
+      <c r="G93" t="n">
+        <v>189.1683665003279</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.30803268019583</v>
+      </c>
+      <c r="J93" t="n">
+        <v>41.84196977304588</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.500674692670863</v>
+      </c>
+      <c r="M93" t="n">
+        <v>38.10652856908686</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>318.6400780958829</v>
+      </c>
+      <c r="P93" t="n">
+        <v>822.3182131879774</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>20.05881077374568</v>
+      </c>
+      <c r="S93" t="n">
+        <v>64.6244982605882</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.430579102847545</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.320036379928852</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>26.0512234618521</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>55.7310122654266</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:36</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.074094180286552</v>
+      </c>
+      <c r="D94" t="n">
+        <v>14.0520564861028</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>65.21090148589339</v>
+      </c>
+      <c r="G94" t="n">
+        <v>177.0504998343171</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>66.76924423291257</v>
+      </c>
+      <c r="J94" t="n">
+        <v>97.02717738584074</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14.80083009770038</v>
+      </c>
+      <c r="M94" t="n">
+        <v>84.78560350990364</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>173.640219448767</v>
+      </c>
+      <c r="P94" t="n">
+        <v>715.4457334364055</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>11.10111257910448</v>
+      </c>
+      <c r="S94" t="n">
+        <v>39.60631595012337</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.388367818222479</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.036970945895753</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X94" t="n">
+        <v>24.36872062057669</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>76.46325814319067</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:37</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.086592936282862</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.32924397613771</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>137.3977398335371</v>
+      </c>
+      <c r="G95" t="n">
+        <v>199</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>91.47663750508866</v>
+      </c>
+      <c r="J95" t="n">
+        <v>117.7843985284608</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.159911562282267</v>
+      </c>
+      <c r="M95" t="n">
+        <v>99</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>24.18471990157172</v>
+      </c>
+      <c r="P95" t="n">
+        <v>39.21900627789665</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>14.53336638746817</v>
+      </c>
+      <c r="S95" t="n">
+        <v>19.08574647187608</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.4917222643409306</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.7040260901154229</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>59.70340925897567</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>71.31834680308884</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:37</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.825771137482779</v>
+      </c>
+      <c r="D96" t="n">
+        <v>16.03313990873208</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>130.7927557757822</v>
+      </c>
+      <c r="G96" t="n">
+        <v>147.0227952895851</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>65.20232182909086</v>
+      </c>
+      <c r="J96" t="n">
+        <v>120.7782249633098</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.3297434370102054</v>
+      </c>
+      <c r="M96" t="n">
+        <v>96.8493324905016</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>98.58758917341089</v>
+      </c>
+      <c r="P96" t="n">
+        <v>367.4118473891829</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>19.55664083806366</v>
+      </c>
+      <c r="S96" t="n">
+        <v>64.66602428054728</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.455872871113258</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.789504997959356</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>63.87335502053556</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>78.76343513934432</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:41</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.209270706611706</v>
+      </c>
+      <c r="D97" t="n">
+        <v>17</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17.75392487767876</v>
+      </c>
+      <c r="G97" t="n">
+        <v>26.68435950844543</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>66.09687812463288</v>
+      </c>
+      <c r="J97" t="n">
+        <v>68.78613234975289</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>25.48628677951901</v>
+      </c>
+      <c r="M97" t="n">
+        <v>56.90009497311257</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>437.4676952361323</v>
+      </c>
+      <c r="P97" t="n">
+        <v>557.7179881416298</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>20.66515772014165</v>
+      </c>
+      <c r="S97" t="n">
+        <v>44.43677523969719</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1840545777648315</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.002252583020798</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>24.70239583531987</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>69.21177211276172</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:41</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>12.88247136738635</v>
+      </c>
+      <c r="D98" t="n">
+        <v>14.37224326075702</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>22.87479726910222</v>
+      </c>
+      <c r="G98" t="n">
+        <v>107.130422147183</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>59.94757963060407</v>
+      </c>
+      <c r="J98" t="n">
+        <v>98.38257973452154</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>49.00857116050371</v>
+      </c>
+      <c r="M98" t="n">
+        <v>91.0759786599544</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>388.0814931236271</v>
+      </c>
+      <c r="P98" t="n">
+        <v>732.4557133223044</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.404316766790951</v>
+      </c>
+      <c r="S98" t="n">
+        <v>63.09417157635744</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.9327278498272495</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.875212450247586</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1</v>
+      </c>
+      <c r="X98" t="n">
+        <v>22.9444679337324</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>76.03199427595648</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:41</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.10468143960279</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.855599274547933</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21.18818649456021</v>
+      </c>
+      <c r="G99" t="n">
+        <v>100.4532084331675</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>26.9880330995821</v>
+      </c>
+      <c r="J99" t="n">
+        <v>71.61656844618825</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>44.86120969231688</v>
+      </c>
+      <c r="M99" t="n">
+        <v>79.80079145572476</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>489.1700575579001</v>
+      </c>
+      <c r="P99" t="n">
+        <v>662.3821662108986</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>27.69191803234544</v>
+      </c>
+      <c r="S99" t="n">
+        <v>61.87793845271838</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.187427884844467</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.095130834815564</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1</v>
+      </c>
+      <c r="X99" t="n">
+        <v>23.95814651103761</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>65.79802105448557</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:41</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.05956450397372</v>
+      </c>
+      <c r="D100" t="n">
+        <v>14.34270929473263</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>96.30947461154746</v>
+      </c>
+      <c r="G100" t="n">
+        <v>165.5619006729104</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26.18752682866803</v>
+      </c>
+      <c r="J100" t="n">
+        <v>54.95623130607655</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>6.630654770505667</v>
+      </c>
+      <c r="M100" t="n">
+        <v>36.98286490222027</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>651.4815300416797</v>
+      </c>
+      <c r="P100" t="n">
+        <v>694.8399390845944</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>43.57739423859722</v>
+      </c>
+      <c r="S100" t="n">
+        <v>47.36576042900992</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1291465151473828</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>28.09949544941713</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>73.8888153050421</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:41</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7331482314547328</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.921186928582885</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>59.29807849541341</v>
+      </c>
+      <c r="G101" t="n">
+        <v>183.2048881029407</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7.130438681478749</v>
+      </c>
+      <c r="J101" t="n">
+        <v>19.26124039163888</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>73.7678514840857</v>
+      </c>
+      <c r="M101" t="n">
+        <v>79.34981467595806</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>99.10698240477876</v>
+      </c>
+      <c r="P101" t="n">
+        <v>533.3663981365316</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>20.64793584036606</v>
+      </c>
+      <c r="S101" t="n">
+        <v>64.36592826376507</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.3349507697176149</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.240553427485112</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>68.30012750814373</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>73.80156724131839</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:45</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.344216545301823</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12.97302831783734</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>20.72719331814015</v>
+      </c>
+      <c r="G102" t="n">
+        <v>129.9241133433394</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36.18056461276507</v>
+      </c>
+      <c r="J102" t="n">
+        <v>63.04387997191234</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>20.50236876895288</v>
+      </c>
+      <c r="M102" t="n">
+        <v>42.85951956441107</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>187.5965521142187</v>
+      </c>
+      <c r="P102" t="n">
+        <v>322.5402752912758</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>20.31546605700076</v>
+      </c>
+      <c r="S102" t="n">
+        <v>40.77340604434732</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.249091971772247</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.306016828612756</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>31.43604305749674</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>34.30213379227941</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:45</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3772458468086126</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.597438840702359</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>80.89388735519609</v>
+      </c>
+      <c r="G103" t="n">
+        <v>195.3290736612306</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29.62635829061783</v>
+      </c>
+      <c r="J103" t="n">
+        <v>111.614260852812</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>12.60626776298944</v>
+      </c>
+      <c r="M103" t="n">
+        <v>49.31000000098236</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>503.7563790805707</v>
+      </c>
+      <c r="P103" t="n">
+        <v>724.9241134320965</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5.462730061609401</v>
+      </c>
+      <c r="S103" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.4443661677821711</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.299830382582943</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1</v>
+      </c>
+      <c r="X103" t="n">
+        <v>27.15466555824687</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:45</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.32795085878101</v>
+      </c>
+      <c r="D104" t="n">
+        <v>13.2491409098824</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.815172882885645</v>
+      </c>
+      <c r="G104" t="n">
+        <v>143.3833432950225</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>45.43036094997998</v>
+      </c>
+      <c r="J104" t="n">
+        <v>52.76838413794614</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>23.30834858737852</v>
+      </c>
+      <c r="M104" t="n">
+        <v>27.86811030269821</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>35.59400515342427</v>
+      </c>
+      <c r="P104" t="n">
+        <v>780.2957908386146</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>13.34415558217402</v>
+      </c>
+      <c r="S104" t="n">
+        <v>45.13023502586936</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.3993735237206008</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.347698044876457</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>24.74895291964684</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>62.05446343966405</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:45</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7494864916777466</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15.18247438376501</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>129.7952851443316</v>
+      </c>
+      <c r="G105" t="n">
+        <v>171.9574290007475</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.65502604250412</v>
+      </c>
+      <c r="J105" t="n">
+        <v>16.90866212205538</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>41.75716474283784</v>
+      </c>
+      <c r="M105" t="n">
+        <v>46.6036733663906</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>583.0139219311714</v>
+      </c>
+      <c r="P105" t="n">
+        <v>653.0952944122996</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.012587228228315</v>
+      </c>
+      <c r="S105" t="n">
+        <v>38.21990992082378</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.4826843617775872</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.710951796341395</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>35.60300319289577</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>76.99599639600785</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.468409433087767</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.719380436210424</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>54.42015282097502</v>
+      </c>
+      <c r="G106" t="n">
+        <v>182.5133675319101</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>55.24792071351966</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>30.36907171842281</v>
+      </c>
+      <c r="M106" t="n">
+        <v>79.11533157805756</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>542.1675935894506</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>39.17638184355855</v>
+      </c>
+      <c r="S106" t="n">
+        <v>53.22171125055252</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.321445108516895</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>28.25758328096088</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>75.87105062419779</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:28</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.705639213784912</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10.39585022005283</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>60.22276112513808</v>
+      </c>
+      <c r="G107" t="n">
+        <v>67.92684913079781</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>82.43442129113447</v>
+      </c>
+      <c r="J107" t="n">
+        <v>108.7811474573785</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>62.47665658342454</v>
+      </c>
+      <c r="M107" t="n">
+        <v>77.25162992207188</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>295.6786962589169</v>
+      </c>
+      <c r="P107" t="n">
+        <v>645.0896963673679</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>44.44856711840173</v>
+      </c>
+      <c r="S107" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.6087046597820721</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1.769327650775785</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>28.99567116037458</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>78.21126133953476</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:28</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.014532882000639</v>
+      </c>
+      <c r="D108" t="n">
+        <v>16.68327672317693</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12.41086244414301</v>
+      </c>
+      <c r="G108" t="n">
+        <v>199</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.192561098087552</v>
+      </c>
+      <c r="J108" t="n">
+        <v>48.83136795003945</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>56.89827840320096</v>
+      </c>
+      <c r="M108" t="n">
+        <v>91.45371138677818</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>23.04006668391267</v>
+      </c>
+      <c r="P108" t="n">
+        <v>235.2082289509739</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>18.02519054403891</v>
+      </c>
+      <c r="S108" t="n">
+        <v>64.25159758311683</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.1044901721413646</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.9162373795654296</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>22.50793777462102</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>24.41245624816656</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:28</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.492004185236683</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10.3145003507542</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>57.68167383509223</v>
+      </c>
+      <c r="G109" t="n">
+        <v>118.6379359772917</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>54.74610520313934</v>
+      </c>
+      <c r="J109" t="n">
+        <v>86.8060035095655</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>36.42523034435911</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>501.4724340920774</v>
+      </c>
+      <c r="P109" t="n">
+        <v>653.5317959834103</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>26.68850410630777</v>
+      </c>
+      <c r="S109" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.5351001373235906</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.60477890240124</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>49.62611665699905</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>55.5576251620708</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:28</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7.212951382671341</v>
+      </c>
+      <c r="G110" t="n">
+        <v>139.9505013815476</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>87.35876799554853</v>
+      </c>
+      <c r="J110" t="n">
+        <v>122</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>67.66712839670197</v>
+      </c>
+      <c r="M110" t="n">
+        <v>99</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>310.7465694729722</v>
+      </c>
+      <c r="P110" t="n">
+        <v>681.645874557308</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>24.51687089328862</v>
+      </c>
+      <c r="S110" t="n">
+        <v>40.86271013908173</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.5332271885042604</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.124647634371362</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" t="n">
+        <v>28.30915232174051</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:28</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>14.44189510606731</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.66266683499063</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>59.46407776776194</v>
+      </c>
+      <c r="G111" t="n">
+        <v>168.0165385177338</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>16.10146428413345</v>
+      </c>
+      <c r="J111" t="n">
+        <v>104.5750498025163</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19.19709166161572</v>
+      </c>
+      <c r="M111" t="n">
+        <v>78.26097761161398</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>165.539497386205</v>
+      </c>
+      <c r="P111" t="n">
+        <v>354.2692863561283</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>25.99847155044101</v>
+      </c>
+      <c r="S111" t="n">
+        <v>29.45093719512789</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.345584929640731</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1.574081688856208</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1</v>
+      </c>
+      <c r="X111" t="n">
+        <v>22.12636284018064</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>80.48288734833694</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:04</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.230520384112543</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.509549981987382</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>105.5046469339555</v>
+      </c>
+      <c r="G112" t="n">
+        <v>176.5373016019802</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>34.57989964423705</v>
+      </c>
+      <c r="J112" t="n">
+        <v>119.050446772656</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>24.88928991913813</v>
+      </c>
+      <c r="M112" t="n">
+        <v>32.3519022109311</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>801.8400118282362</v>
+      </c>
+      <c r="P112" t="n">
+        <v>821.7321707845628</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>8.358556146211701</v>
+      </c>
+      <c r="S112" t="n">
+        <v>18.52237870841084</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.2840182534569913</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.040510539741406</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>23.29193566378573</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>70.85685228641006</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:05</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.627484653468894</v>
+      </c>
+      <c r="D113" t="n">
+        <v>13.46206266268656</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>96.35979643146969</v>
+      </c>
+      <c r="G113" t="n">
+        <v>103.9102681192694</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>92.07087387246042</v>
+      </c>
+      <c r="J113" t="n">
+        <v>101.3715257463512</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.999103453891217</v>
+      </c>
+      <c r="M113" t="n">
+        <v>59.70815942092945</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>41.66127298958288</v>
+      </c>
+      <c r="P113" t="n">
+        <v>725.707325973655</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>15.42677447996532</v>
+      </c>
+      <c r="S113" t="n">
+        <v>51.27953613723763</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.5828854465678871</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1.169731575013865</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>27.03008903972643</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>74.67159818174426</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:05</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.284725727138583</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14.33725994827799</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>82.90201502889873</v>
+      </c>
+      <c r="G114" t="n">
+        <v>139.1572485893095</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>40.71625855588348</v>
+      </c>
+      <c r="J114" t="n">
+        <v>90.24461653483982</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>11.8598377856356</v>
+      </c>
+      <c r="M114" t="n">
+        <v>78.94819170747989</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>16.53376988078952</v>
+      </c>
+      <c r="P114" t="n">
+        <v>534.3660728203755</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.123610741106886</v>
+      </c>
+      <c r="S114" t="n">
+        <v>8.520942592430369</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.698895694393176</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.181855019574281</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>25.89676837836589</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>29.05721436943102</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:05</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.614319857581908</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15.69153826175983</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>121.9763302323136</v>
+      </c>
+      <c r="G115" t="n">
+        <v>178.4426872376997</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>81.129020487671</v>
+      </c>
+      <c r="J115" t="n">
+        <v>118.1328770427987</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>37.83966267526281</v>
+      </c>
+      <c r="M115" t="n">
+        <v>92.69188409388295</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>413.7557514482603</v>
+      </c>
+      <c r="P115" t="n">
+        <v>481.8502735441237</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>60.67629676689024</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.1484248767518757</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.081691525977963</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1</v>
+      </c>
+      <c r="X115" t="n">
+        <v>27.88743787915831</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>77.46210579320731</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.279296752168985</v>
+      </c>
+      <c r="D116" t="n">
+        <v>13.6263528226913</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>42.02687425609768</v>
+      </c>
+      <c r="G116" t="n">
+        <v>78.23356483407859</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>48.83650015599089</v>
+      </c>
+      <c r="J116" t="n">
+        <v>117.2756072638213</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>10.86267197750284</v>
+      </c>
+      <c r="M116" t="n">
+        <v>39.94436012383984</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>261.9148800676798</v>
+      </c>
+      <c r="P116" t="n">
+        <v>365.1578845292245</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>51.30965938201071</v>
+      </c>
+      <c r="S116" t="n">
+        <v>58.31520406520406</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.199106611858927</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.326929682973348</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>35.28200988161031</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>67.42950910308548</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:42</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.21438676748165</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.72860255120619</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>88.49953404802224</v>
+      </c>
+      <c r="G117" t="n">
+        <v>111.2111194711562</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>93.04056285170444</v>
+      </c>
+      <c r="J117" t="n">
+        <v>102.6431040615338</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>21.63793054035538</v>
+      </c>
+      <c r="M117" t="n">
+        <v>36.82403088890025</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>59.95628175989008</v>
+      </c>
+      <c r="P117" t="n">
+        <v>226.5776267760753</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>24.00007845423817</v>
+      </c>
+      <c r="S117" t="n">
+        <v>54.44690522842541</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.08963085660841211</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.19439044133775</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>57.65775166538519</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>69.38143337166331</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:42</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.94504129659309</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14.38585693220475</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>124.294273795322</v>
+      </c>
+      <c r="G118" t="n">
+        <v>140.9173547462933</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>86.81524657127792</v>
+      </c>
+      <c r="J118" t="n">
+        <v>105.8919426919766</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>50.12930020438623</v>
+      </c>
+      <c r="M118" t="n">
+        <v>91.31689769673237</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>279.7809372964836</v>
+      </c>
+      <c r="P118" t="n">
+        <v>742.4253315842348</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.6936132477369</v>
+      </c>
+      <c r="S118" t="n">
+        <v>44.79523976122168</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.125203177411135</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1.159781020542004</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>24.3785080108627</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>65.92279398020099</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:42</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.235336359632202</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14.47760214591903</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>64.25902217349162</v>
+      </c>
+      <c r="G119" t="n">
+        <v>198.0299515973357</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.530883178683528</v>
+      </c>
+      <c r="J119" t="n">
+        <v>46.3835127943838</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>62.76548074798903</v>
+      </c>
+      <c r="M119" t="n">
+        <v>99</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>299.7441645954978</v>
+      </c>
+      <c r="P119" t="n">
+        <v>782.5137417218303</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>36.326750733773</v>
+      </c>
+      <c r="S119" t="n">
+        <v>61.99672328555815</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.1296473025908222</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0.7762223051238799</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1</v>
+      </c>
+      <c r="X119" t="n">
+        <v>22.64779168034917</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>68.66075192843394</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:42</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4149702091492862</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16.63546858806048</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30.93310044146223</v>
+      </c>
+      <c r="G120" t="n">
+        <v>66.62000051697748</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.472883554362861</v>
+      </c>
+      <c r="J120" t="n">
+        <v>65.65683296065538</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>16.31462027615503</v>
+      </c>
+      <c r="M120" t="n">
+        <v>71.43319766462103</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>707.5590314188817</v>
+      </c>
+      <c r="P120" t="n">
+        <v>835.0272809661128</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>15.67393096142082</v>
+      </c>
+      <c r="S120" t="n">
+        <v>29.23952331074258</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.1564538611559881</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.386435711692467</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>63.526684223975</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>72.26422399258669</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:42</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.95583885239702</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14.06700993958685</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>128.2436402510381</v>
+      </c>
+      <c r="G121" t="n">
+        <v>142.1727791460814</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>51.07496206759774</v>
+      </c>
+      <c r="J121" t="n">
+        <v>107.5159646642722</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>77.6632131295213</v>
+      </c>
+      <c r="M121" t="n">
+        <v>94.0140244339407</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>700.5427300398206</v>
+      </c>
+      <c r="P121" t="n">
+        <v>836.0277774278505</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>16.55893416962909</v>
+      </c>
+      <c r="S121" t="n">
+        <v>27.20286259282275</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.716788118156775</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.303190883755721</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>33.87962455941669</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>77.47759838394151</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:43</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10.07093374250106</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>39.6707303211402</v>
+      </c>
+      <c r="G122" t="n">
+        <v>57.6957059592167</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>90.56788413364421</v>
+      </c>
+      <c r="J122" t="n">
+        <v>111.5468458833011</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>88.66143725388571</v>
+      </c>
+      <c r="M122" t="n">
+        <v>99</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>27.94301262841367</v>
+      </c>
+      <c r="P122" t="n">
+        <v>147.0877030257478</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>25.57219309657116</v>
+      </c>
+      <c r="S122" t="n">
+        <v>47.35058411863913</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.669595525362052</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1.749581922108516</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>22.9537758360384</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:43</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.629189695603059</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.02185164294696</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>132.3858119941398</v>
+      </c>
+      <c r="G123" t="n">
+        <v>159.0545144556077</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>109.3791827498531</v>
+      </c>
+      <c r="J123" t="n">
+        <v>111.5104087516316</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>31.0971936704324</v>
+      </c>
+      <c r="M123" t="n">
+        <v>74.2954368685364</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>155.1120648100535</v>
+      </c>
+      <c r="P123" t="n">
+        <v>723.465502002502</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="n">
+        <v>11.74815372068933</v>
+      </c>
+      <c r="S123" t="n">
+        <v>59.53143815665391</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.8412730850623338</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.9705255124529933</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1</v>
+      </c>
+      <c r="X123" t="n">
+        <v>24.53038392583174</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>50.66129042476503</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:43</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13.30081040092805</v>
+      </c>
+      <c r="D124" t="n">
+        <v>13.72020534479615</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>164.8977608851482</v>
+      </c>
+      <c r="G124" t="n">
+        <v>177.389305852047</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>17.4521537203512</v>
+      </c>
+      <c r="J124" t="n">
+        <v>89.89814581352186</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>17.81084131999892</v>
+      </c>
+      <c r="M124" t="n">
+        <v>42.35953560392129</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>412.8242236607701</v>
+      </c>
+      <c r="P124" t="n">
+        <v>681.2658694394523</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>42.74105203651489</v>
+      </c>
+      <c r="S124" t="n">
+        <v>63.49006118146929</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.4128042331704298</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.430948320341045</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" t="n">
+        <v>23.67656049778875</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>78.00711158522599</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:43</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.619000106286398</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16.92257770871814</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>144.2006909013101</v>
+      </c>
+      <c r="G125" t="n">
+        <v>170.202105695798</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>37.35640074765234</v>
+      </c>
+      <c r="J125" t="n">
+        <v>120.9411737199981</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>5.798061071737243</v>
+      </c>
+      <c r="M125" t="n">
+        <v>92.75859403691989</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>9.413734112547736</v>
+      </c>
+      <c r="P125" t="n">
+        <v>168.7619106568464</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>18.53689444474554</v>
+      </c>
+      <c r="S125" t="n">
+        <v>26.56362821533882</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.147353949456891</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.159993440264677</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>29.25981703590107</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>60.80690845882021</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.060455602255218</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.4989038413786</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>192.5163057246295</v>
+      </c>
+      <c r="G126" t="n">
+        <v>199</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>50.83720311009345</v>
+      </c>
+      <c r="J126" t="n">
+        <v>91.43558212591395</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>45.75980109045739</v>
+      </c>
+      <c r="M126" t="n">
+        <v>93.59886626821523</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>70.1697285450267</v>
+      </c>
+      <c r="P126" t="n">
+        <v>544.7469914483255</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>50.46469198786246</v>
+      </c>
+      <c r="S126" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1</v>
+      </c>
+      <c r="X126" t="n">
+        <v>28.43120350539429</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>70.98674497602913</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:26</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.904203981335278</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.19035641594991</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>79.63576574101609</v>
+      </c>
+      <c r="G127" t="n">
+        <v>193.5549882973173</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>80.63796823820762</v>
+      </c>
+      <c r="J127" t="n">
+        <v>92.81997123500628</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>18.52901008028432</v>
+      </c>
+      <c r="M127" t="n">
+        <v>94.79476749545753</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>201.1546138694081</v>
+      </c>
+      <c r="P127" t="n">
+        <v>838.6844688210442</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>31.93147205045153</v>
+      </c>
+      <c r="S127" t="n">
+        <v>41.14880134179493</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.588390137370829</v>
+      </c>
+      <c r="V127" t="n">
+        <v>1.601810389893183</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>21.97508295088629</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>39.40946872715241</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:26</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>10.51478693228352</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15.74161601701187</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>122.2786470511373</v>
+      </c>
+      <c r="G128" t="n">
+        <v>163.0717587490107</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>65.73352641411792</v>
+      </c>
+      <c r="J128" t="n">
+        <v>85.47229419979614</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>12.80509653673498</v>
+      </c>
+      <c r="M128" t="n">
+        <v>71.68287133280207</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>186.1704091890249</v>
+      </c>
+      <c r="P128" t="n">
+        <v>325.0506350343999</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>24.63086467398683</v>
+      </c>
+      <c r="S128" t="n">
+        <v>35.39234969406822</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.385695532791621</v>
+      </c>
+      <c r="V128" t="n">
+        <v>1.622117137638745</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>21.37905529600387</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>50.29034749377856</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:26</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.269707296084891</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16.50830488838417</v>
+      </c>
+      <c r="G129" t="n">
+        <v>94.158013541337</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>33.45738607822582</v>
+      </c>
+      <c r="J129" t="n">
+        <v>78.35182850715749</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>48.96753545684219</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>180.038004505365</v>
+      </c>
+      <c r="P129" t="n">
+        <v>512.5634449691025</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>22.7432162126527</v>
+      </c>
+      <c r="S129" t="n">
+        <v>33.63012803604208</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.8526346031325711</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1.558267940229589</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>28.75297139282397</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>40.57326627491622</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:26</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5047688771064422</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.10646017774457</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>91.37860592345409</v>
+      </c>
+      <c r="G130" t="n">
+        <v>132.0861651206527</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>43.83108922419425</v>
+      </c>
+      <c r="J130" t="n">
+        <v>81.88500839696388</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>65.44314960148117</v>
+      </c>
+      <c r="M130" t="n">
+        <v>91.54632931256381</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>260.9233718819443</v>
+      </c>
+      <c r="P130" t="n">
+        <v>300.5686028956266</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>17.53995267462594</v>
+      </c>
+      <c r="S130" t="n">
+        <v>27.13670743564585</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.5472264180768107</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1.495292990690605</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>48.09139370687667</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>49.59665932782237</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:26</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8.618693049633618</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.03891397307291</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18.51420549979173</v>
+      </c>
+      <c r="G131" t="n">
+        <v>133.8811055297473</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>113.7781259689008</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>73.14648298178382</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>275.7001581525165</v>
+      </c>
+      <c r="P131" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>12.84637216889223</v>
+      </c>
+      <c r="S131" t="n">
+        <v>64.1899645296533</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0.5539919460518242</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.212226106296833</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>30.36426581118213</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:45</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.451978129641113</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15.6335303343989</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>158.1041079165075</v>
+      </c>
+      <c r="G132" t="n">
+        <v>165.2879525182175</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>30.79477763116077</v>
+      </c>
+      <c r="J132" t="n">
+        <v>70.80505078967265</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>31.04250111521587</v>
+      </c>
+      <c r="M132" t="n">
+        <v>68.24600001425848</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>626.0070701462699</v>
+      </c>
+      <c r="P132" t="n">
+        <v>669.7185749295982</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>46.69482458629586</v>
+      </c>
+      <c r="S132" t="n">
+        <v>57.24854483464341</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.425580813660901</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1.761276437492757</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>26.19358988996885</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>77.8292522556053</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:45</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.596039279423277</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10.9547072515323</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>35.47573318137107</v>
+      </c>
+      <c r="G133" t="n">
+        <v>94.4542693549687</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>44.89956058889266</v>
+      </c>
+      <c r="J133" t="n">
+        <v>107.537814877765</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>18.43750768625296</v>
+      </c>
+      <c r="M133" t="n">
+        <v>57.03126389337848</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>462.499953363393</v>
+      </c>
+      <c r="P133" t="n">
+        <v>744.1137666279689</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>28.48867372895301</v>
+      </c>
+      <c r="S133" t="n">
+        <v>37.33669849544219</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.017189282856109</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1</v>
+      </c>
+      <c r="X133" t="n">
+        <v>26.93089063598786</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:45</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.404596217641131</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.749593151057169</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100.9134590108555</v>
+      </c>
+      <c r="G134" t="n">
+        <v>187.0051243770734</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.447057889715331</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7.284506063957175</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>55.54935397827254</v>
+      </c>
+      <c r="M134" t="n">
+        <v>74.73215553135127</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>294.0556413076538</v>
+      </c>
+      <c r="P134" t="n">
+        <v>647.5920384622281</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>6.047066424279253</v>
+      </c>
+      <c r="S134" t="n">
+        <v>36.79222612878462</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.8565288947673689</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.274091996988071</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>57.14999851443132</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>75.54413642840333</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:46</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.8132564421284362</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.692727427666387</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>91.29768111416709</v>
+      </c>
+      <c r="G135" t="n">
+        <v>120.5036160893792</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>8.548551052676499</v>
+      </c>
+      <c r="J135" t="n">
+        <v>55.08287833812204</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>14.4520747246126</v>
+      </c>
+      <c r="M135" t="n">
+        <v>19.80261890218492</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>126.4328299785972</v>
+      </c>
+      <c r="P135" t="n">
+        <v>181.0334224109164</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.209289677143687</v>
+      </c>
+      <c r="S135" t="n">
+        <v>18.1581467681455</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1.06457923184128</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1.448388095697337</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1</v>
+      </c>
+      <c r="X135" t="n">
+        <v>28.40932975327208</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>64.23283119127326</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:46</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.42451091750669</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.9401092111086</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.712329099945598</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.936025916060446</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>17.34234345977656</v>
+      </c>
+      <c r="J136" t="n">
+        <v>86.41946796956951</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>29.51865762323947</v>
+      </c>
+      <c r="M136" t="n">
+        <v>69.12005123332639</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>19.06533747822193</v>
+      </c>
+      <c r="P136" t="n">
+        <v>240.5253484080304</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>23.37431861309758</v>
+      </c>
+      <c r="S136" t="n">
+        <v>59.42887320602942</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0.104722394628609</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0.9944702328872485</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1</v>
+      </c>
+      <c r="X136" t="n">
+        <v>23.63956227436951</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>70.46459094527744</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0.9259259259259259</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:16</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.809639591962462</v>
+      </c>
+      <c r="D137" t="n">
+        <v>14.87920571260485</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9.786789223801673</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27.80808807835764</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>20.90254829669414</v>
+      </c>
+      <c r="J137" t="n">
+        <v>41.66094132263535</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>17.65800547565875</v>
+      </c>
+      <c r="M137" t="n">
+        <v>88.42576881127904</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>128.6523945167007</v>
+      </c>
+      <c r="P137" t="n">
+        <v>329.4529967853205</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>44.00749414898659</v>
+      </c>
+      <c r="S137" t="n">
+        <v>51.91150825297385</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.980485539306353</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1.047448086474167</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>43.20338073988574</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>71.94661136607823</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:16</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9000837118801778</v>
+      </c>
+      <c r="D138" t="n">
+        <v>17</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11.91263336193872</v>
+      </c>
+      <c r="G138" t="n">
+        <v>95.53792403075951</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>20.38195289030139</v>
+      </c>
+      <c r="J138" t="n">
+        <v>49.46216493387342</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>54.64475128577484</v>
+      </c>
+      <c r="M138" t="n">
+        <v>55.30285341730533</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>127.7696447718992</v>
+      </c>
+      <c r="P138" t="n">
+        <v>733.1337128724659</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>16.18026090863502</v>
+      </c>
+      <c r="S138" t="n">
+        <v>44.6299622575069</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.1319030051009913</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.232529696628231</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>53.04497941087487</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>59.63479866303529</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:16</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.081528149690502</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.837209173057999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11.55466980818473</v>
+      </c>
+      <c r="G139" t="n">
+        <v>45.02850958202551</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>8.765772131488308</v>
+      </c>
+      <c r="J139" t="n">
+        <v>16.67668257124867</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>99</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>366.1732226710964</v>
+      </c>
+      <c r="P139" t="n">
+        <v>401.4793478663454</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>22.64677906734213</v>
+      </c>
+      <c r="S139" t="n">
+        <v>33.41603138477377</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.7013496169212137</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1.018130335598085</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>45.346399422081</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>58.72444059076774</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:16</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2022585220131876</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.527916824306033</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>80.00638316954063</v>
+      </c>
+      <c r="G140" t="n">
+        <v>105.6137732026989</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>19.66823156343499</v>
+      </c>
+      <c r="J140" t="n">
+        <v>38.10647413821648</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>7.674120627393018</v>
+      </c>
+      <c r="M140" t="n">
+        <v>65.37679041880891</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>490.057285992312</v>
+      </c>
+      <c r="P140" t="n">
+        <v>551.7818740650233</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4.18478709173493</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13.67469925287053</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0.3605272867404463</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0.8023030154121499</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>30.17277624349324</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>62.62389296323045</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:16</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.105721327404946</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.38557561347898</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>85.9480005256369</v>
+      </c>
+      <c r="G141" t="n">
+        <v>127.2672809070277</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.804940039639829</v>
+      </c>
+      <c r="J141" t="n">
+        <v>31.12241805268865</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>11.94931296796031</v>
+      </c>
+      <c r="M141" t="n">
+        <v>26.04863990819543</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>49.93005716127474</v>
+      </c>
+      <c r="P141" t="n">
+        <v>333.3896696918773</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>7.589035843931995</v>
+      </c>
+      <c r="S141" t="n">
+        <v>46.51363539001477</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.021233685913395</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.557564261033968</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>24.86313288359373</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>59.36137448330309</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0.5185185185185185</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -12032,6 +12032,1236 @@
       </c>
       <c r="Z141" t="n">
         <v>0.5185185185185185</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:23</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.831466954847272</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13.79720987426017</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>75.8205700208667</v>
+      </c>
+      <c r="G142" t="n">
+        <v>183.0159082490432</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>111.3467627086171</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>42.7147232563805</v>
+      </c>
+      <c r="M142" t="n">
+        <v>85.19081832461357</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>257.1345125547105</v>
+      </c>
+      <c r="P142" t="n">
+        <v>622.013117831843</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3.528376192468165</v>
+      </c>
+      <c r="S142" t="n">
+        <v>14.7668883047116</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0.9555383409818602</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1.99327866867473</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>36.01496910598076</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>36.45264154533369</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:24</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.3107865523637324</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.95382419547147</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>129.0569506857742</v>
+      </c>
+      <c r="G143" t="n">
+        <v>184.2558624111072</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>109.4446382393697</v>
+      </c>
+      <c r="J143" t="n">
+        <v>110.7633316486832</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>56.21774729156193</v>
+      </c>
+      <c r="M143" t="n">
+        <v>89.47010060245212</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>173.1219905739362</v>
+      </c>
+      <c r="P143" t="n">
+        <v>774.8008839307838</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>24.93167456643444</v>
+      </c>
+      <c r="S143" t="n">
+        <v>47.00402366612324</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0.817227643528841</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0.8792052486801417</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>40.14582578428428</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>65.74680590884417</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:24</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.474266191502814</v>
+      </c>
+      <c r="D144" t="n">
+        <v>17</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>107.1938511608673</v>
+      </c>
+      <c r="G144" t="n">
+        <v>135.4941327396772</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27.38685283019429</v>
+      </c>
+      <c r="J144" t="n">
+        <v>34.47014338143602</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>66.24004417474285</v>
+      </c>
+      <c r="M144" t="n">
+        <v>92.68097333139825</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>395.1610899111478</v>
+      </c>
+      <c r="P144" t="n">
+        <v>725.5359772312049</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>16.48944961992812</v>
+      </c>
+      <c r="S144" t="n">
+        <v>38.70425466015933</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.31756383077148</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.053536231890514</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>27.21159176501066</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:24</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.535518630355892</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.444156666252251</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>49.86909837254839</v>
+      </c>
+      <c r="G145" t="n">
+        <v>67.83059304046935</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>43.50670687573841</v>
+      </c>
+      <c r="J145" t="n">
+        <v>106.0820803263716</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>13.78502875232321</v>
+      </c>
+      <c r="M145" t="n">
+        <v>99</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>614.6101032541945</v>
+      </c>
+      <c r="P145" t="n">
+        <v>707.0970720744176</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>17.42991194658609</v>
+      </c>
+      <c r="S145" t="n">
+        <v>60.75514221801486</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0.09598729601914013</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.4692873849838794</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>43.43506487441319</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>70.1334804814887</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:25</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.316925990004654</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.5106297112256</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>13.46753226685825</v>
+      </c>
+      <c r="G146" t="n">
+        <v>124.8494572547175</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>64.16491704538468</v>
+      </c>
+      <c r="J146" t="n">
+        <v>103.7268250126288</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>4.468556959687247</v>
+      </c>
+      <c r="M146" t="n">
+        <v>11.18293593031487</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>8.26726889619923</v>
+      </c>
+      <c r="P146" t="n">
+        <v>177.9925732700162</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>4.335505679770331</v>
+      </c>
+      <c r="S146" t="n">
+        <v>36.29214775637021</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.005902066074947</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1.40680042210231</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>33.3004432294867</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>76.55869296889371</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:40</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14.62665838416857</v>
+      </c>
+      <c r="D147" t="n">
+        <v>14.94006012619033</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19.36099247717632</v>
+      </c>
+      <c r="G147" t="n">
+        <v>118.966230336624</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>22.43007214244453</v>
+      </c>
+      <c r="J147" t="n">
+        <v>79.68673535210569</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>24.30528483576615</v>
+      </c>
+      <c r="M147" t="n">
+        <v>53.56167733491255</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>475.1744038661931</v>
+      </c>
+      <c r="P147" t="n">
+        <v>546.5631333336322</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>46.66932994186651</v>
+      </c>
+      <c r="S147" t="n">
+        <v>49.72554286218951</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0.1850384993032376</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>25.88458628914892</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>67.8099886952029</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:40</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.08214689490658034</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9513714317386522</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>85.34314476219036</v>
+      </c>
+      <c r="G148" t="n">
+        <v>198.8093293090181</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>51.64616544488102</v>
+      </c>
+      <c r="J148" t="n">
+        <v>109.546864175066</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>15.38400118952431</v>
+      </c>
+      <c r="M148" t="n">
+        <v>19.65567644331111</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>524.1199999885126</v>
+      </c>
+      <c r="P148" t="n">
+        <v>629.7341134092842</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8.824430623349798</v>
+      </c>
+      <c r="S148" t="n">
+        <v>59.99707783021648</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.13960397916096</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.182568696471917</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>24.51344933395202</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>33.92510729771391</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:40</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.693134687070102</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10.23371018252854</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4.165369795667847</v>
+      </c>
+      <c r="G149" t="n">
+        <v>70.16144537966578</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5.404539540993563</v>
+      </c>
+      <c r="J149" t="n">
+        <v>85.67945156403853</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>7.490703012141132</v>
+      </c>
+      <c r="M149" t="n">
+        <v>99</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>542.7555690643211</v>
+      </c>
+      <c r="P149" t="n">
+        <v>543.1901932084889</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>9.096707429034915</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.38447185702446</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.264789505016747</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>26.54512233028053</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>48.58286281008884</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10.12703040326364</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16.83431686482888</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>34.17740432466383</v>
+      </c>
+      <c r="G150" t="n">
+        <v>148.9409948828138</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>72.74934213675445</v>
+      </c>
+      <c r="J150" t="n">
+        <v>112.051817595616</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.069657283262725</v>
+      </c>
+      <c r="M150" t="n">
+        <v>84.08797945827314</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>8.511001691547889</v>
+      </c>
+      <c r="P150" t="n">
+        <v>628.3787331464772</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>32.56419700465487</v>
+      </c>
+      <c r="S150" t="n">
+        <v>61.19408383342401</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.780994247766786</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.873545937994967</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>39.11269722069181</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>53.99703053640467</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.803477715208963</v>
+      </c>
+      <c r="D151" t="n">
+        <v>17</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>29.20262196629043</v>
+      </c>
+      <c r="G151" t="n">
+        <v>83.60662372581763</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>24.20844511456546</v>
+      </c>
+      <c r="J151" t="n">
+        <v>88.89206142233057</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>17.78602461412904</v>
+      </c>
+      <c r="M151" t="n">
+        <v>27.77609640531718</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>54.20675436408305</v>
+      </c>
+      <c r="P151" t="n">
+        <v>119.2030223523603</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>57.63775621202594</v>
+      </c>
+      <c r="S151" t="n">
+        <v>58.5375613699667</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0.9600755083234224</v>
+      </c>
+      <c r="V151" t="n">
+        <v>1.984648902043098</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>25.53173898661707</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>66.79920691302695</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:10</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.308715406339964</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13.46604981165638</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>90.50237901164745</v>
+      </c>
+      <c r="G152" t="n">
+        <v>122.1770666450446</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>59.65728067762173</v>
+      </c>
+      <c r="J152" t="n">
+        <v>70.20141997084821</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>32.0514604774376</v>
+      </c>
+      <c r="M152" t="n">
+        <v>45.2685993454794</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>162.8506431586395</v>
+      </c>
+      <c r="P152" t="n">
+        <v>608.4631385530872</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>30.78741862609715</v>
+      </c>
+      <c r="S152" t="n">
+        <v>60.43657187672358</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0.6256465604397643</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.244408296115476</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>23.45926227211208</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>73.48433009312419</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:10</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.123032144358641</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.31521857228591</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>49.03720588106823</v>
+      </c>
+      <c r="G153" t="n">
+        <v>128.0158298082</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>13.77069999907989</v>
+      </c>
+      <c r="J153" t="n">
+        <v>29.22296613186657</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>83.15833086667396</v>
+      </c>
+      <c r="M153" t="n">
+        <v>98.80553480867829</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>104.7719780421369</v>
+      </c>
+      <c r="P153" t="n">
+        <v>152.1381496984343</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>22.71201628914254</v>
+      </c>
+      <c r="S153" t="n">
+        <v>60.21926959369637</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0.1292771669635564</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0.1706173447331936</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>50.20418376917516</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>60.32385705908977</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:10</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.870172997807014</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13.64812709527765</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9.670166989356618</v>
+      </c>
+      <c r="G154" t="n">
+        <v>84.36846552482973</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>11.75300657080879</v>
+      </c>
+      <c r="J154" t="n">
+        <v>121.3666927666976</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>10.5292510113587</v>
+      </c>
+      <c r="M154" t="n">
+        <v>88.25149948513388</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>75.48303686744795</v>
+      </c>
+      <c r="P154" t="n">
+        <v>543.3126529202671</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>33.25931809660304</v>
+      </c>
+      <c r="S154" t="n">
+        <v>63.0265347417595</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0.502082546995726</v>
+      </c>
+      <c r="V154" t="n">
+        <v>1.995108710095214</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>50.08272439505099</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>71.88935008809102</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:10</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.234088437690223</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16.55069145284495</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>136.5496047368221</v>
+      </c>
+      <c r="G155" t="n">
+        <v>176.0725339773645</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>36.71804708604233</v>
+      </c>
+      <c r="J155" t="n">
+        <v>94.67099543489489</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>26.25414282676669</v>
+      </c>
+      <c r="M155" t="n">
+        <v>66.39502242819269</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>12.16951395349566</v>
+      </c>
+      <c r="P155" t="n">
+        <v>327.5304869846951</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>27.61039133470419</v>
+      </c>
+      <c r="S155" t="n">
+        <v>65.50176541097052</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0.7165159753748803</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.410990967198781</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>63.16464130519989</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>65.09242386378659</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:10</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.098214263610826</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.46379915327683</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>80.90197419260844</v>
+      </c>
+      <c r="G156" t="n">
+        <v>145.8515773944372</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7.11723177601208</v>
+      </c>
+      <c r="J156" t="n">
+        <v>90.67682064829778</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>71.48975257500152</v>
+      </c>
+      <c r="M156" t="n">
+        <v>74.36249613566976</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>405.2543340122971</v>
+      </c>
+      <c r="P156" t="n">
+        <v>480.3915675108607</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>39.05030591461595</v>
+      </c>
+      <c r="S156" t="n">
+        <v>66.44776371738179</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.354031236175752</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.07764063052048</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1</v>
+      </c>
+      <c r="X156" t="n">
+        <v>27.55032861436536</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>72.29628748828929</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/pos_picked.xlsx
+++ b/Working code/Logs/pos_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Z1"/>
@@ -13262,6 +13262,2056 @@
       </c>
       <c r="Z156" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:40</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.2224150048851327</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.01561594622967</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>77.29030704283362</v>
+      </c>
+      <c r="G157" t="n">
+        <v>79.106141691183</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>27.47511801806503</v>
+      </c>
+      <c r="J157" t="n">
+        <v>65.18987353067304</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>19.60833329229714</v>
+      </c>
+      <c r="M157" t="n">
+        <v>45.24629737051256</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>66.97768981484172</v>
+      </c>
+      <c r="P157" t="n">
+        <v>802.4344693118189</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3.757947495477183</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8.02397041449762</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.044979299622493</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.244776130338781</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>53.45072701773012</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>66.68145669563012</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:40</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.6775891704096808</v>
+      </c>
+      <c r="D158" t="n">
+        <v>14.70418200055534</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>47.65301730506357</v>
+      </c>
+      <c r="G158" t="n">
+        <v>199</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>24.47771887501854</v>
+      </c>
+      <c r="J158" t="n">
+        <v>30.53817682840609</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>20.48861046163044</v>
+      </c>
+      <c r="M158" t="n">
+        <v>98.53584996239206</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>123.2065584679371</v>
+      </c>
+      <c r="P158" t="n">
+        <v>262.5226396828042</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4.797276738632508</v>
+      </c>
+      <c r="S158" t="n">
+        <v>15.45152833178118</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0.3603211819327053</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1.704278927863486</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>30.89096198792049</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>46.79574231522054</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:40</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.480702822515313</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.05962417226458</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>125.7336326091133</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>9.77943206918837</v>
+      </c>
+      <c r="J159" t="n">
+        <v>117.9702534256401</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>43.18671596507986</v>
+      </c>
+      <c r="M159" t="n">
+        <v>99</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>17.06733559421058</v>
+      </c>
+      <c r="P159" t="n">
+        <v>773.7612215660434</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>60.1492971226341</v>
+      </c>
+      <c r="S159" t="n">
+        <v>61.01024190403892</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0.8449964044168905</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1.706363483598999</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1</v>
+      </c>
+      <c r="X159" t="n">
+        <v>28.39536989521705</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:40</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10.29610689576932</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13.63878108751396</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>56.74588444686174</v>
+      </c>
+      <c r="G160" t="n">
+        <v>152.317173164344</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>43.02125479179801</v>
+      </c>
+      <c r="J160" t="n">
+        <v>116.6131743670221</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>51.50625632735493</v>
+      </c>
+      <c r="M160" t="n">
+        <v>95.46169561550239</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>111.1273399528355</v>
+      </c>
+      <c r="P160" t="n">
+        <v>762.7844346221491</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>24.76094426628243</v>
+      </c>
+      <c r="S160" t="n">
+        <v>56.67634291566051</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0.1017009765294575</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0.6245742319968792</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>28.15296817153742</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>68.52204726616048</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:40</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.559478345378098</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.297287547466915</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>58.50213856982368</v>
+      </c>
+      <c r="G161" t="n">
+        <v>195.6725550171308</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.481889891716706</v>
+      </c>
+      <c r="J161" t="n">
+        <v>52.93953679517188</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.3781893901809443</v>
+      </c>
+      <c r="M161" t="n">
+        <v>63.89303358093844</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>126.1432242961328</v>
+      </c>
+      <c r="P161" t="n">
+        <v>784.0357509904226</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>14.43817471580629</v>
+      </c>
+      <c r="S161" t="n">
+        <v>44.82422514317076</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.661277132599879</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>28.25846027318427</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>55.26510211813766</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:53</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.63209427268923</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.267840654673464</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>104.872130191361</v>
+      </c>
+      <c r="G162" t="n">
+        <v>130.3234114169043</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.56285838096587</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12.60356767536248</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.596495720716362</v>
+      </c>
+      <c r="M162" t="n">
+        <v>11.42408751785278</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>477.9950564342387</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>54.18692671683684</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0.4222077296330271</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1</v>
+      </c>
+      <c r="X162" t="n">
+        <v>28.39247481824045</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>67.5341286079483</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:53</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16.16310456065508</v>
+      </c>
+      <c r="D163" t="n">
+        <v>17</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>77.05380630860058</v>
+      </c>
+      <c r="G163" t="n">
+        <v>127.2095295176737</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>49.75805732011982</v>
+      </c>
+      <c r="J163" t="n">
+        <v>59.0557642901159</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>66.16699547181076</v>
+      </c>
+      <c r="M163" t="n">
+        <v>78.4114512357942</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>141.5207291835494</v>
+      </c>
+      <c r="P163" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>56.90504755573765</v>
+      </c>
+      <c r="S163" t="n">
+        <v>61.39466900610182</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0.3722937245982034</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.394287323343965</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>69.33102589715594</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:53</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.820074908351696</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10.75597321255991</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>27.44871158603225</v>
+      </c>
+      <c r="G164" t="n">
+        <v>48.15741464898713</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>22.62946360587788</v>
+      </c>
+      <c r="J164" t="n">
+        <v>60.32872249226706</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>99</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>52.39511596491707</v>
+      </c>
+      <c r="P164" t="n">
+        <v>595.0027388856277</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5.524958560392058</v>
+      </c>
+      <c r="S164" t="n">
+        <v>62.07236570705385</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.242762510790331</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1</v>
+      </c>
+      <c r="X164" t="n">
+        <v>25.14955424341554</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>73.94446682214813</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:54</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.037426635573449</v>
+      </c>
+      <c r="D165" t="n">
+        <v>17</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>163.0122489980967</v>
+      </c>
+      <c r="G165" t="n">
+        <v>175.9869946833096</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>76.70176468099284</v>
+      </c>
+      <c r="J165" t="n">
+        <v>84.19337533592415</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>26.98705209194103</v>
+      </c>
+      <c r="M165" t="n">
+        <v>55.61908115270331</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>207.6802525547406</v>
+      </c>
+      <c r="P165" t="n">
+        <v>662.9763852679488</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>23.37391605125207</v>
+      </c>
+      <c r="S165" t="n">
+        <v>59.06540087942892</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.039885831329533</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.942370345377482</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>36.61360503782704</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>42.17268810012024</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:54</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.23305322341889</v>
+      </c>
+      <c r="D166" t="n">
+        <v>13.91727039877392</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>28.843845079336</v>
+      </c>
+      <c r="G166" t="n">
+        <v>101.4302114155738</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>99.09327807898306</v>
+      </c>
+      <c r="J166" t="n">
+        <v>100.3426205410887</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>14.20099955683394</v>
+      </c>
+      <c r="M166" t="n">
+        <v>90.44307329342006</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>528.4952428628226</v>
+      </c>
+      <c r="P166" t="n">
+        <v>791.9078937094108</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>21.69465658028236</v>
+      </c>
+      <c r="S166" t="n">
+        <v>60.25718967830943</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0.3418219870507218</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0.4086828149546077</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>59.61073301518203</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>73.48465806020243</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:35</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>17</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>39.20331838648288</v>
+      </c>
+      <c r="G167" t="n">
+        <v>57.14098285705344</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>18.74913906996348</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>61.28422885025271</v>
+      </c>
+      <c r="M167" t="n">
+        <v>80.66917289017606</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>357.7351270550799</v>
+      </c>
+      <c r="P167" t="n">
+        <v>427.1900621647334</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>22.2068016327295</v>
+      </c>
+      <c r="S167" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0.3743216234234544</v>
+      </c>
+      <c r="V167" t="n">
+        <v>1.387829525813824</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>25.59475670685408</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>66.8673209956209</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.036351310789287</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.14328150905249</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>27.97483752127206</v>
+      </c>
+      <c r="G168" t="n">
+        <v>162.2156997545216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>47.75580393975532</v>
+      </c>
+      <c r="J168" t="n">
+        <v>88.92161474611146</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>39.43567238452927</v>
+      </c>
+      <c r="M168" t="n">
+        <v>99</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>114.5130465358439</v>
+      </c>
+      <c r="P168" t="n">
+        <v>444.7224826901601</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>23.34299887613941</v>
+      </c>
+      <c r="S168" t="n">
+        <v>42.29756142770331</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.396111445275696</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.463922320576017</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1</v>
+      </c>
+      <c r="X168" t="n">
+        <v>23.40910829214683</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>72.85316208472086</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.686892401841339</v>
+      </c>
+      <c r="D169" t="n">
+        <v>8.664129680904129</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21.54062719144139</v>
+      </c>
+      <c r="G169" t="n">
+        <v>27.97647341032955</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>60.25724247148354</v>
+      </c>
+      <c r="J169" t="n">
+        <v>122</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2.390496161085127</v>
+      </c>
+      <c r="M169" t="n">
+        <v>34.98052668821202</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>48.00894023351545</v>
+      </c>
+      <c r="P169" t="n">
+        <v>191.4470909144289</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>21.15691785892532</v>
+      </c>
+      <c r="S169" t="n">
+        <v>50.39254289028717</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0.9996884449039155</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.400636891058812</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>23.90243349176291</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>37.91518362614353</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.92850007474402</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.16533109395239</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.469760331647012</v>
+      </c>
+      <c r="G170" t="n">
+        <v>109.2809008414666</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>69.64378338700858</v>
+      </c>
+      <c r="J170" t="n">
+        <v>115.9291552887902</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>49.97711150224328</v>
+      </c>
+      <c r="M170" t="n">
+        <v>63.02444566542709</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>19.60693456331964</v>
+      </c>
+      <c r="P170" t="n">
+        <v>724.1729454289861</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>8.990666334555307</v>
+      </c>
+      <c r="S170" t="n">
+        <v>52.51048471741073</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1.390937033636307</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>30.23156953117692</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>54.22901693148465</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.908540544445328</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.314198931614998</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13.40916806936383</v>
+      </c>
+      <c r="G171" t="n">
+        <v>80.26938990590217</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>80.15546381396803</v>
+      </c>
+      <c r="J171" t="n">
+        <v>96.3104247421151</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>16.09770121430443</v>
+      </c>
+      <c r="M171" t="n">
+        <v>59.60248613302712</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>32.68546551501199</v>
+      </c>
+      <c r="P171" t="n">
+        <v>619.778095513239</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="n">
+        <v>20.45804970400518</v>
+      </c>
+      <c r="S171" t="n">
+        <v>61.19691083274789</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.130354821200034</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1.264246215888082</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1</v>
+      </c>
+      <c r="X171" t="n">
+        <v>27.52697965800346</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>72.08390433466826</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:26</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7.906816164497208</v>
+      </c>
+      <c r="D172" t="n">
+        <v>13.54822435165822</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13.41489009194699</v>
+      </c>
+      <c r="G172" t="n">
+        <v>52.9237342788207</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>81.94838330513596</v>
+      </c>
+      <c r="J172" t="n">
+        <v>115.8184141450752</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2.420300048602783</v>
+      </c>
+      <c r="M172" t="n">
+        <v>66.70987901314969</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="n">
+        <v>59.02459365799358</v>
+      </c>
+      <c r="P172" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>31.79784574459764</v>
+      </c>
+      <c r="S172" t="n">
+        <v>65.33566426977249</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.523204329361945</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1.668593642221542</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>22.94411323333196</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>55.79363731529359</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:26</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.606797776578258</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.993697546834748</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>27.49061097920103</v>
+      </c>
+      <c r="G173" t="n">
+        <v>113.2602991661463</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>62.22390828445013</v>
+      </c>
+      <c r="J173" t="n">
+        <v>115.4863657514767</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>5.145293672116726</v>
+      </c>
+      <c r="M173" t="n">
+        <v>99</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>12.67010232241064</v>
+      </c>
+      <c r="S173" t="n">
+        <v>19.75774814166683</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0.7567079875015952</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.270281915931449</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>51.61253765095564</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>62.28609515608986</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:26</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.231407157373542</v>
+      </c>
+      <c r="D174" t="n">
+        <v>16.7490662781839</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>103.122188762663</v>
+      </c>
+      <c r="G174" t="n">
+        <v>129.1883243006885</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>93.54910371434606</v>
+      </c>
+      <c r="J174" t="n">
+        <v>101.7525280483524</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>71.82434667372823</v>
+      </c>
+      <c r="M174" t="n">
+        <v>74.14066639140108</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>17.46069443464998</v>
+      </c>
+      <c r="P174" t="n">
+        <v>305.1481093785912</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>23.83446778705526</v>
+      </c>
+      <c r="S174" t="n">
+        <v>61.43227885466571</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>1.225368856213067</v>
+      </c>
+      <c r="V174" t="n">
+        <v>1.613843673919614</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>25.73985505828388</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>54.64886633932704</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.181174560248339</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13.70453620914432</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>159.1322461000469</v>
+      </c>
+      <c r="G175" t="n">
+        <v>170.615462634899</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>37.61210867100627</v>
+      </c>
+      <c r="J175" t="n">
+        <v>104.9073086608405</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>75.9463823532659</v>
+      </c>
+      <c r="M175" t="n">
+        <v>83.26253351512469</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>380.8728028086684</v>
+      </c>
+      <c r="P175" t="n">
+        <v>648.0197975108116</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>10.77300872023509</v>
+      </c>
+      <c r="S175" t="n">
+        <v>40.59473316787515</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0.2187005467748044</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>39.86065532910118</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>40.12879394223761</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.743879659866402</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.08306972538354</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>24.1799991367142</v>
+      </c>
+      <c r="G176" t="n">
+        <v>112.2577898421426</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.319443247866944</v>
+      </c>
+      <c r="J176" t="n">
+        <v>28.25362024070391</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>99</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>243.6117189388464</v>
+      </c>
+      <c r="P176" t="n">
+        <v>490.5805504141278</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>25.7032291752997</v>
+      </c>
+      <c r="S176" t="n">
+        <v>35.75410231136313</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.074583678959924</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.39728203784073</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1</v>
+      </c>
+      <c r="X176" t="n">
+        <v>27.07954142626254</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>68.39856893352292</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:43</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.969983190198045</v>
+      </c>
+      <c r="D177" t="n">
+        <v>8.538955802467209</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>53.90471275439626</v>
+      </c>
+      <c r="G177" t="n">
+        <v>68.53565406087159</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>21.85545607747651</v>
+      </c>
+      <c r="J177" t="n">
+        <v>34.57880984464549</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2.925641523802059</v>
+      </c>
+      <c r="M177" t="n">
+        <v>95.26256996080535</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>326.8617257161572</v>
+      </c>
+      <c r="P177" t="n">
+        <v>835.5130643382145</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>33.9991260437365</v>
+      </c>
+      <c r="S177" t="n">
+        <v>66.00234878604864</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.202872759268734</v>
+      </c>
+      <c r="V177" t="n">
+        <v>1.724459956999333</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1</v>
+      </c>
+      <c r="X177" t="n">
+        <v>24.80652659717649</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>73.17701617142455</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.03557255553507</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.26422118083928</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>37.66246969138007</v>
+      </c>
+      <c r="G178" t="n">
+        <v>189.5881622249914</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>54.25148878948087</v>
+      </c>
+      <c r="J178" t="n">
+        <v>58.99600860613565</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>35.88859127989912</v>
+      </c>
+      <c r="M178" t="n">
+        <v>59.91199885002469</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>586.9015443768934</v>
+      </c>
+      <c r="P178" t="n">
+        <v>616.8411644942505</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>35.5284283196661</v>
+      </c>
+      <c r="S178" t="n">
+        <v>57.71534600759306</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0.6942289180503289</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1.889355311322752</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1</v>
+      </c>
+      <c r="X178" t="n">
+        <v>29.58567499558765</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.064587085708973</v>
+      </c>
+      <c r="D179" t="n">
+        <v>14.31371862894903</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>37.30623391764229</v>
+      </c>
+      <c r="G179" t="n">
+        <v>126.0392216943395</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>72.0779278590765</v>
+      </c>
+      <c r="J179" t="n">
+        <v>77.37797975103368</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>23.91994381376221</v>
+      </c>
+      <c r="M179" t="n">
+        <v>76.31674115893982</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>431.7517423210598</v>
+      </c>
+      <c r="P179" t="n">
+        <v>610.4582156090062</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>35.66515363680222</v>
+      </c>
+      <c r="S179" t="n">
+        <v>44.08009585473732</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0.2280465601297328</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.177196028963106</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>28.48869528308472</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>45.00514184515404</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.532610201641034</v>
+      </c>
+      <c r="D180" t="n">
+        <v>8.012976410786806</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>107.520901325677</v>
+      </c>
+      <c r="G180" t="n">
+        <v>136.837100907168</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>25.05288212353384</v>
+      </c>
+      <c r="J180" t="n">
+        <v>84.70077220127384</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>68.76823973936847</v>
+      </c>
+      <c r="M180" t="n">
+        <v>73.47402805810685</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>68.96260568319857</v>
+      </c>
+      <c r="P180" t="n">
+        <v>646.6958187562104</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>31.17076401740708</v>
+      </c>
+      <c r="S180" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.64848952491018</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.979104781785411</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1</v>
+      </c>
+      <c r="X180" t="n">
+        <v>21.04224360547716</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>80.38327599342107</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>7.430003172995613</v>
+      </c>
+      <c r="D181" t="n">
+        <v>8.106708067441197</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>119.9802066063749</v>
+      </c>
+      <c r="G181" t="n">
+        <v>196.7384826972105</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>27.74412745608774</v>
+      </c>
+      <c r="J181" t="n">
+        <v>116.1580405605489</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>18.46693262877297</v>
+      </c>
+      <c r="M181" t="n">
+        <v>31.98988698171396</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>285.9219303986884</v>
+      </c>
+      <c r="P181" t="n">
+        <v>612.2874201187905</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>34.8623744803945</v>
+      </c>
+      <c r="S181" t="n">
+        <v>41.65964465011319</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1.541451600414282</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1.583853864466082</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>45.432164324825</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>50.17980632226586</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
